--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-639278.8191012901</v>
+        <v>-641854.7947736699</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116121.11704525</v>
+        <v>10116121.11704526</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>356.2602747055665</v>
       </c>
       <c r="C11" t="n">
         <v>338.7993248130934</v>
@@ -1382,13 +1382,13 @@
         <v>380.4024787837973</v>
       </c>
       <c r="G11" t="n">
-        <v>384.4481586955393</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>268.1341974294064</v>
       </c>
       <c r="I11" t="n">
-        <v>15.10336281501185</v>
+        <v>15.1033628150118</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.71419483026173</v>
+        <v>82.7141948302617</v>
       </c>
       <c r="T11" t="n">
         <v>177.444403181706</v>
       </c>
       <c r="U11" t="n">
-        <v>213.2585963416464</v>
+        <v>224.5216050009878</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>301.2786915122208</v>
       </c>
       <c r="W11" t="n">
-        <v>322.7674017594989</v>
+        <v>54.92042355549457</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>343.2575337205549</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.7643716981395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1528,13 @@
         <v>153.3584132240232</v>
       </c>
       <c r="C13" t="n">
-        <v>140.7732541407137</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>122.1419060602983</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.9603956886551</v>
+        <v>119.960395688655</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>118.2814479564067</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.87885345192396</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.45858571213323</v>
+        <v>62.4585857121332</v>
       </c>
       <c r="S13" t="n">
-        <v>62.58405935528865</v>
+        <v>163.2954583735278</v>
       </c>
       <c r="T13" t="n">
         <v>193.0753823182551</v>
@@ -1591,7 +1591,7 @@
         <v>260.0494313786769</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>92.32490773085009</v>
       </c>
       <c r="Y13" t="n">
         <v>192.1110863941807</v>
@@ -1610,7 +1610,7 @@
         <v>338.7993248130934</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>328.2094746627689</v>
       </c>
       <c r="E14" t="n">
         <v>355.4568031143477</v>
@@ -1619,7 +1619,7 @@
         <v>380.4024787837973</v>
       </c>
       <c r="G14" t="n">
-        <v>87.53648135403874</v>
+        <v>384.4382685582191</v>
       </c>
       <c r="H14" t="n">
         <v>268.0329100605756</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.48882332607704</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>177.4011091055868</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.5208137900023</v>
+        <v>224.5208137900022</v>
       </c>
       <c r="V14" t="n">
-        <v>301.2786915122208</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.7674017594989</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>343.2575337205549</v>
+        <v>242.3179258588498</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.7643716981395</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.252751916312786</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>122.1419060602983</v>
+        <v>122.1419060602982</v>
       </c>
       <c r="E16" t="n">
-        <v>119.9603956886551</v>
+        <v>119.960395688655</v>
       </c>
       <c r="F16" t="n">
-        <v>118.9474810650172</v>
+        <v>118.9474810650171</v>
       </c>
       <c r="G16" t="n">
         <v>139.5478049259924</v>
       </c>
       <c r="H16" t="n">
-        <v>118.2420045485063</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.7454395528091</v>
+        <v>60.38821977783579</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.25911015438767</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>163.2181444543612</v>
+        <v>163.2181444543611</v>
       </c>
       <c r="T16" t="n">
         <v>193.0564268972805</v>
@@ -1828,10 +1828,10 @@
         <v>260.0494313786769</v>
       </c>
       <c r="X16" t="n">
-        <v>199.2360884311231</v>
+        <v>199.236088431123</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.1110863941807</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>309.4857949493149</v>
+        <v>309.4857949493148</v>
       </c>
       <c r="C17" t="n">
-        <v>292.0248450568419</v>
+        <v>292.0248450568418</v>
       </c>
       <c r="D17" t="n">
-        <v>281.4349949065173</v>
+        <v>281.4349949065172</v>
       </c>
       <c r="E17" t="n">
-        <v>275.1324603448336</v>
+        <v>308.682323358096</v>
       </c>
       <c r="F17" t="n">
-        <v>333.6279990275457</v>
+        <v>3.595082049979688</v>
       </c>
       <c r="G17" t="n">
         <v>337.6637888019675</v>
@@ -1895,10 +1895,10 @@
         <v>35.71434356982542</v>
       </c>
       <c r="T17" t="n">
-        <v>130.6266293493352</v>
+        <v>130.6266293493351</v>
       </c>
       <c r="U17" t="n">
-        <v>177.7463340337507</v>
+        <v>177.7463340337506</v>
       </c>
       <c r="V17" t="n">
         <v>254.5042117559692</v>
@@ -1907,10 +1907,10 @@
         <v>275.9929220032473</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>296.4830539643033</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.9898919418879</v>
+        <v>312.9898919418878</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>106.5839334677716</v>
       </c>
       <c r="C19" t="n">
-        <v>93.99877438446212</v>
+        <v>93.9987743844621</v>
       </c>
       <c r="D19" t="n">
-        <v>75.36742630404665</v>
+        <v>75.36742630404662</v>
       </c>
       <c r="E19" t="n">
-        <v>73.18591593240346</v>
+        <v>73.18591593240343</v>
       </c>
       <c r="F19" t="n">
-        <v>72.17300130876554</v>
+        <v>72.17300130876551</v>
       </c>
       <c r="G19" t="n">
-        <v>92.7733251697408</v>
+        <v>149.6010556235493</v>
       </c>
       <c r="H19" t="n">
-        <v>71.46752479225472</v>
+        <v>71.46752479225469</v>
       </c>
       <c r="I19" t="n">
-        <v>79.79869025036545</v>
+        <v>22.97095979655746</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.48463039813606</v>
+        <v>15.48463039813603</v>
       </c>
       <c r="S19" t="n">
-        <v>116.4436646981096</v>
+        <v>116.4436646981095</v>
       </c>
       <c r="T19" t="n">
-        <v>146.2819471410289</v>
+        <v>146.2819471410288</v>
       </c>
       <c r="U19" t="n">
         <v>212.9635495073496</v>
       </c>
       <c r="V19" t="n">
-        <v>178.8895966096623</v>
+        <v>178.8895966096622</v>
       </c>
       <c r="W19" t="n">
-        <v>213.2749516224253</v>
+        <v>213.2749516224252</v>
       </c>
       <c r="X19" t="n">
-        <v>152.4616086748715</v>
+        <v>152.4616086748714</v>
       </c>
       <c r="Y19" t="n">
-        <v>145.3366066379291</v>
+        <v>145.336606637929</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>309.4857949493149</v>
+        <v>309.4857949493148</v>
       </c>
       <c r="C20" t="n">
-        <v>292.0248450568419</v>
+        <v>292.0248450568418</v>
       </c>
       <c r="D20" t="n">
-        <v>281.4349949065173</v>
+        <v>281.4349949065172</v>
       </c>
       <c r="E20" t="n">
-        <v>308.6823233580961</v>
+        <v>308.682323358096</v>
       </c>
       <c r="F20" t="n">
         <v>333.6279990275457</v>
@@ -2096,7 +2096,7 @@
         <v>337.6637888019675</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>221.258430304324</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>35.71434356982542</v>
       </c>
       <c r="T20" t="n">
-        <v>130.6266293493352</v>
+        <v>76.58663437501677</v>
       </c>
       <c r="U20" t="n">
-        <v>177.7463340337507</v>
+        <v>177.7463340337506</v>
       </c>
       <c r="V20" t="n">
         <v>254.5042117559692</v>
       </c>
       <c r="W20" t="n">
-        <v>167.2184353300053</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>296.4830539643033</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.9898919418879</v>
+        <v>312.9898919418878</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>106.5839334677716</v>
       </c>
       <c r="C22" t="n">
-        <v>93.99877438446212</v>
+        <v>93.9987743844621</v>
       </c>
       <c r="D22" t="n">
-        <v>75.36742630404665</v>
+        <v>75.36742630404662</v>
       </c>
       <c r="E22" t="n">
-        <v>73.18591593240346</v>
+        <v>130.013646386212</v>
       </c>
       <c r="F22" t="n">
-        <v>72.17300130876554</v>
+        <v>72.17300130876551</v>
       </c>
       <c r="G22" t="n">
-        <v>92.7733251697408</v>
+        <v>92.77332516974077</v>
       </c>
       <c r="H22" t="n">
-        <v>128.2952552460627</v>
+        <v>71.46752479225469</v>
       </c>
       <c r="I22" t="n">
-        <v>22.97095979655749</v>
+        <v>22.97095979655746</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.48463039813606</v>
+        <v>15.48463039813603</v>
       </c>
       <c r="S22" t="n">
-        <v>116.4436646981096</v>
+        <v>116.4436646981095</v>
       </c>
       <c r="T22" t="n">
-        <v>146.2819471410289</v>
+        <v>146.2819471410288</v>
       </c>
       <c r="U22" t="n">
         <v>212.9635495073496</v>
       </c>
       <c r="V22" t="n">
-        <v>178.8895966096623</v>
+        <v>178.8895966096622</v>
       </c>
       <c r="W22" t="n">
-        <v>213.2749516224253</v>
+        <v>213.2749516224252</v>
       </c>
       <c r="X22" t="n">
-        <v>152.4616086748715</v>
+        <v>152.4616086748714</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.3366066379291</v>
+        <v>145.336606637929</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>309.4857949493149</v>
+        <v>309.4857949493148</v>
       </c>
       <c r="C23" t="n">
-        <v>292.0248450568419</v>
+        <v>292.0248450568418</v>
       </c>
       <c r="D23" t="n">
-        <v>281.4349949065173</v>
+        <v>281.4349949065172</v>
       </c>
       <c r="E23" t="n">
-        <v>308.6823233580961</v>
+        <v>308.682323358096</v>
       </c>
       <c r="F23" t="n">
         <v>333.6279990275457</v>
@@ -2369,10 +2369,10 @@
         <v>35.71434356982542</v>
       </c>
       <c r="T23" t="n">
-        <v>130.6266293493352</v>
+        <v>130.6266293493351</v>
       </c>
       <c r="U23" t="n">
-        <v>177.7463340337507</v>
+        <v>177.7463340337506</v>
       </c>
       <c r="V23" t="n">
         <v>254.5042117559692</v>
@@ -2384,7 +2384,7 @@
         <v>296.4830539643033</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.9898919418879</v>
+        <v>312.9898919418878</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>106.5839334677716</v>
       </c>
       <c r="C25" t="n">
-        <v>93.99877438446212</v>
+        <v>93.9987743844621</v>
       </c>
       <c r="D25" t="n">
-        <v>75.36742630404665</v>
+        <v>75.36742630404662</v>
       </c>
       <c r="E25" t="n">
-        <v>73.18591593240346</v>
+        <v>73.18591593240343</v>
       </c>
       <c r="F25" t="n">
-        <v>72.17300130876554</v>
+        <v>72.17300130876551</v>
       </c>
       <c r="G25" t="n">
-        <v>149.6010556235487</v>
+        <v>92.77332516974077</v>
       </c>
       <c r="H25" t="n">
-        <v>71.46752479225472</v>
+        <v>71.46752479225469</v>
       </c>
       <c r="I25" t="n">
-        <v>22.97095979655749</v>
+        <v>22.97095979655746</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.48463039813606</v>
+        <v>72.31236085194416</v>
       </c>
       <c r="S25" t="n">
-        <v>116.4436646981096</v>
+        <v>116.4436646981095</v>
       </c>
       <c r="T25" t="n">
-        <v>146.2819471410289</v>
+        <v>146.2819471410288</v>
       </c>
       <c r="U25" t="n">
         <v>212.9635495073496</v>
       </c>
       <c r="V25" t="n">
-        <v>178.8895966096623</v>
+        <v>178.8895966096622</v>
       </c>
       <c r="W25" t="n">
-        <v>213.2749516224253</v>
+        <v>213.2749516224252</v>
       </c>
       <c r="X25" t="n">
-        <v>152.4616086748715</v>
+        <v>152.4616086748714</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.3366066379291</v>
+        <v>145.336606637929</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.9593619072289</v>
+        <v>335.959361907229</v>
       </c>
       <c r="C26" t="n">
-        <v>318.4984120147559</v>
+        <v>318.498412014756</v>
       </c>
       <c r="D26" t="n">
-        <v>307.9085618644313</v>
+        <v>307.9085618644314</v>
       </c>
       <c r="E26" t="n">
-        <v>335.1558903160101</v>
+        <v>335.1558903160102</v>
       </c>
       <c r="F26" t="n">
         <v>360.1015659854598</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.18791052773956</v>
+        <v>62.18791052773955</v>
       </c>
       <c r="T26" t="n">
-        <v>157.1001963072492</v>
+        <v>157.1001963072493</v>
       </c>
       <c r="U26" t="n">
-        <v>204.2199009916647</v>
+        <v>204.2199009916648</v>
       </c>
       <c r="V26" t="n">
         <v>280.9777787138833</v>
@@ -2621,7 +2621,7 @@
         <v>322.9566209222174</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.4634588998019</v>
+        <v>339.463458899802</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9941774757258</v>
       </c>
       <c r="H27" t="n">
-        <v>89.54576883368276</v>
+        <v>89.54576883368274</v>
       </c>
       <c r="I27" t="n">
-        <v>18.63502672475583</v>
+        <v>18.6350267247558</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>128.0452168209514</v>
+        <v>128.0452168209513</v>
       </c>
       <c r="T27" t="n">
         <v>190.695241094828</v>
@@ -2716,19 +2716,19 @@
         <v>120.4723413423762</v>
       </c>
       <c r="D28" t="n">
-        <v>101.8409932619607</v>
+        <v>101.8409932619608</v>
       </c>
       <c r="E28" t="n">
-        <v>99.65948289031755</v>
+        <v>99.65948289031758</v>
       </c>
       <c r="F28" t="n">
-        <v>98.64656826667962</v>
+        <v>98.64656826667965</v>
       </c>
       <c r="G28" t="n">
         <v>119.2468921276549</v>
       </c>
       <c r="H28" t="n">
-        <v>97.94109175016881</v>
+        <v>97.94109175016884</v>
       </c>
       <c r="I28" t="n">
         <v>49.4445267544716</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95819735605019</v>
+        <v>41.95819735605018</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9172316560236</v>
+        <v>142.9172316560237</v>
       </c>
       <c r="T28" t="n">
         <v>172.755514098943</v>
@@ -2776,7 +2776,7 @@
         <v>239.7485185803394</v>
       </c>
       <c r="X28" t="n">
-        <v>178.9351756327855</v>
+        <v>178.9351756327856</v>
       </c>
       <c r="Y28" t="n">
         <v>171.8101735958432</v>
@@ -2792,7 +2792,7 @@
         <v>335.959361907229</v>
       </c>
       <c r="C29" t="n">
-        <v>318.4984120147559</v>
+        <v>318.498412014756</v>
       </c>
       <c r="D29" t="n">
         <v>307.9085618644314</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.18791052773952</v>
+        <v>62.18791052773955</v>
       </c>
       <c r="T29" t="n">
-        <v>157.1001963072492</v>
+        <v>157.1001963072493</v>
       </c>
       <c r="U29" t="n">
-        <v>204.2199009916647</v>
+        <v>204.2199009916648</v>
       </c>
       <c r="V29" t="n">
         <v>280.9777787138833</v>
@@ -2858,7 +2858,7 @@
         <v>322.9566209222174</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.4634588998019</v>
+        <v>339.463458899802</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>120.4723413423762</v>
       </c>
       <c r="D31" t="n">
-        <v>101.8409932619607</v>
+        <v>101.8409932619608</v>
       </c>
       <c r="E31" t="n">
-        <v>99.65948289031755</v>
+        <v>99.65948289031758</v>
       </c>
       <c r="F31" t="n">
-        <v>98.64656826667962</v>
+        <v>98.64656826667965</v>
       </c>
       <c r="G31" t="n">
         <v>119.2468921276549</v>
       </c>
       <c r="H31" t="n">
-        <v>97.94109175016881</v>
+        <v>97.94109175016884</v>
       </c>
       <c r="I31" t="n">
-        <v>49.44452675447157</v>
+        <v>49.4445267544716</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95819735605015</v>
+        <v>41.95819735605018</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9172316560236</v>
+        <v>142.917231656024</v>
       </c>
       <c r="T31" t="n">
         <v>172.755514098943</v>
@@ -3013,10 +3013,10 @@
         <v>239.7485185803394</v>
       </c>
       <c r="X31" t="n">
-        <v>178.9351756327855</v>
+        <v>178.9351756327856</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.8101735958441</v>
+        <v>171.8101735958432</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.18791052773953</v>
+        <v>62.18791052773955</v>
       </c>
       <c r="T32" t="n">
-        <v>157.1001963072492</v>
+        <v>157.1001963072493</v>
       </c>
       <c r="U32" t="n">
-        <v>204.2199009916647</v>
+        <v>204.2199009916648</v>
       </c>
       <c r="V32" t="n">
         <v>280.9777787138833</v>
@@ -3190,22 +3190,22 @@
         <v>120.4723413423762</v>
       </c>
       <c r="D34" t="n">
-        <v>101.8409932619607</v>
+        <v>101.8409932619608</v>
       </c>
       <c r="E34" t="n">
-        <v>99.65948289031755</v>
+        <v>99.65948289031758</v>
       </c>
       <c r="F34" t="n">
-        <v>98.64656826667962</v>
+        <v>98.64656826667965</v>
       </c>
       <c r="G34" t="n">
         <v>119.2468921276549</v>
       </c>
       <c r="H34" t="n">
-        <v>97.94109175016879</v>
+        <v>97.94109175016884</v>
       </c>
       <c r="I34" t="n">
-        <v>49.44452675447159</v>
+        <v>49.4445267544716</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95819735605016</v>
+        <v>41.95819735605018</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9172316560236</v>
+        <v>142.9172316560237</v>
       </c>
       <c r="T34" t="n">
         <v>172.755514098943</v>
@@ -3250,7 +3250,7 @@
         <v>239.7485185803394</v>
       </c>
       <c r="X34" t="n">
-        <v>178.9351756327855</v>
+        <v>178.9351756327856</v>
       </c>
       <c r="Y34" t="n">
         <v>171.8101735958432</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.18791052773958</v>
+        <v>62.18791052773952</v>
       </c>
       <c r="T41" t="n">
         <v>157.1001963072493</v>
@@ -3797,7 +3797,7 @@
         <v>204.2199009916648</v>
       </c>
       <c r="V41" t="n">
-        <v>280.9777787138834</v>
+        <v>280.9777787138833</v>
       </c>
       <c r="W41" t="n">
         <v>302.4664889611614</v>
@@ -3898,25 +3898,25 @@
         <v>133.0575004256857</v>
       </c>
       <c r="C43" t="n">
-        <v>120.4723413423763</v>
+        <v>120.4723413423762</v>
       </c>
       <c r="D43" t="n">
-        <v>101.8409932619608</v>
+        <v>101.8409932619607</v>
       </c>
       <c r="E43" t="n">
-        <v>99.65948289031761</v>
+        <v>99.65948289031756</v>
       </c>
       <c r="F43" t="n">
-        <v>98.64656826667968</v>
+        <v>98.64656826667964</v>
       </c>
       <c r="G43" t="n">
         <v>119.2468921276549</v>
       </c>
       <c r="H43" t="n">
-        <v>97.94109175016887</v>
+        <v>97.94109175016882</v>
       </c>
       <c r="I43" t="n">
-        <v>49.44452675447163</v>
+        <v>49.44452675447159</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95819735605021</v>
+        <v>41.95819735605018</v>
       </c>
       <c r="S43" t="n">
         <v>142.9172316560237</v>
@@ -3952,7 +3952,7 @@
         <v>172.755514098943</v>
       </c>
       <c r="U43" t="n">
-        <v>239.4371164652638</v>
+        <v>239.4371164652637</v>
       </c>
       <c r="V43" t="n">
         <v>205.3631635675764</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.18791052773955</v>
+        <v>62.18791052773952</v>
       </c>
       <c r="T44" t="n">
         <v>157.1001963072493</v>
@@ -4138,22 +4138,22 @@
         <v>120.4723413423762</v>
       </c>
       <c r="D46" t="n">
-        <v>101.8409932619608</v>
+        <v>101.8409932619607</v>
       </c>
       <c r="E46" t="n">
-        <v>99.65948289031758</v>
+        <v>99.65948289031756</v>
       </c>
       <c r="F46" t="n">
-        <v>98.64656826667965</v>
+        <v>98.64656826667964</v>
       </c>
       <c r="G46" t="n">
         <v>119.2468921276549</v>
       </c>
       <c r="H46" t="n">
-        <v>97.94109175016884</v>
+        <v>97.94109175016882</v>
       </c>
       <c r="I46" t="n">
-        <v>49.4445267544716</v>
+        <v>49.44452675447159</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2157.980601597805</v>
+        <v>1769.649128167967</v>
       </c>
       <c r="C11" t="n">
-        <v>1815.759061382559</v>
+        <v>1427.427587952721</v>
       </c>
       <c r="D11" t="n">
-        <v>1484.234339500974</v>
+        <v>1095.902866071136</v>
       </c>
       <c r="E11" t="n">
-        <v>1125.187063627895</v>
+        <v>736.8555901980576</v>
       </c>
       <c r="F11" t="n">
-        <v>740.9421355634536</v>
+        <v>352.6106621336159</v>
       </c>
       <c r="G11" t="n">
         <v>352.6106621336159</v>
@@ -5069,22 +5069,22 @@
         <v>3242.056129861432</v>
       </c>
       <c r="T11" t="n">
-        <v>3062.819358970819</v>
+        <v>3062.81935897082</v>
       </c>
       <c r="U11" t="n">
-        <v>2847.406635393399</v>
+        <v>2836.029858969822</v>
       </c>
       <c r="V11" t="n">
-        <v>2847.406635393399</v>
+        <v>2531.707948351417</v>
       </c>
       <c r="W11" t="n">
-        <v>2521.378956848451</v>
+        <v>2476.232773042837</v>
       </c>
       <c r="X11" t="n">
-        <v>2521.378956848451</v>
+        <v>2129.507991506923</v>
       </c>
       <c r="Y11" t="n">
-        <v>2157.980601597805</v>
+        <v>2129.507991506923</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,49 +5121,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.6931721364134</v>
+        <v>518.7070037029913</v>
       </c>
       <c r="C13" t="n">
-        <v>571.4979659336723</v>
+        <v>518.7070037029913</v>
       </c>
       <c r="D13" t="n">
-        <v>448.1223032465023</v>
+        <v>518.7070037029913</v>
       </c>
       <c r="E13" t="n">
-        <v>326.9501863892751</v>
+        <v>397.5348868457639</v>
       </c>
       <c r="F13" t="n">
-        <v>326.9501863892751</v>
+        <v>397.5348868457639</v>
       </c>
       <c r="G13" t="n">
-        <v>185.9883264891599</v>
+        <v>256.5730269456487</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>137.0968168886723</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>137.8435801674539</v>
+        <v>137.843580167454</v>
       </c>
       <c r="K13" t="n">
-        <v>368.0395944046653</v>
+        <v>368.0395944046654</v>
       </c>
       <c r="L13" t="n">
-        <v>710.8082241414963</v>
+        <v>710.8082241414966</v>
       </c>
       <c r="M13" t="n">
         <v>1081.17410102938</v>
@@ -5215,7 +5215,7 @@
         <v>1774.329739232328</v>
       </c>
       <c r="P13" t="n">
-        <v>2033.146070954322</v>
+        <v>2033.146070954323</v>
       </c>
       <c r="Q13" t="n">
         <v>2136.965198395172</v>
@@ -5224,25 +5224,25 @@
         <v>2073.875717877866</v>
       </c>
       <c r="S13" t="n">
-        <v>2010.659496306867</v>
+        <v>1908.930810429858</v>
       </c>
       <c r="T13" t="n">
-        <v>1815.633857601559</v>
+        <v>1713.90517172455</v>
       </c>
       <c r="U13" t="n">
-        <v>1553.271967452368</v>
+        <v>1451.543281575359</v>
       </c>
       <c r="V13" t="n">
-        <v>1325.328455971647</v>
+        <v>1223.599770094638</v>
       </c>
       <c r="W13" t="n">
-        <v>1062.652262659852</v>
+        <v>960.9235767828434</v>
       </c>
       <c r="X13" t="n">
-        <v>1062.652262659852</v>
+        <v>867.6660942264295</v>
       </c>
       <c r="Y13" t="n">
-        <v>868.6006602414874</v>
+        <v>673.6144918080652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1511.428046881306</v>
+        <v>2142.853563918628</v>
       </c>
       <c r="C14" t="n">
-        <v>1169.20650666606</v>
+        <v>1800.632023703382</v>
       </c>
       <c r="D14" t="n">
-        <v>1169.20650666606</v>
+        <v>1469.107301821798</v>
       </c>
       <c r="E14" t="n">
-        <v>810.1592307929816</v>
+        <v>1110.060025948719</v>
       </c>
       <c r="F14" t="n">
-        <v>425.9143027285398</v>
+        <v>725.8150978842773</v>
       </c>
       <c r="G14" t="n">
         <v>337.493614492137</v>
       </c>
       <c r="H14" t="n">
-        <v>66.75330129963636</v>
+        <v>66.75330129963635</v>
       </c>
       <c r="I14" t="n">
-        <v>66.75330129963636</v>
+        <v>66.75330129963635</v>
       </c>
       <c r="J14" t="n">
-        <v>256.4634511706199</v>
+        <v>256.4634511706206</v>
       </c>
       <c r="K14" t="n">
-        <v>591.5283067900637</v>
+        <v>591.5283067900634</v>
       </c>
       <c r="L14" t="n">
         <v>1044.107650505182</v>
@@ -5288,7 +5288,7 @@
         <v>1579.35881053609</v>
       </c>
       <c r="N14" t="n">
-        <v>2127.88470230299</v>
+        <v>2127.884702302989</v>
       </c>
       <c r="O14" t="n">
         <v>2632.506886287996</v>
@@ -5297,31 +5297,31 @@
         <v>3028.689244613401</v>
       </c>
       <c r="Q14" t="n">
-        <v>3278.032949699958</v>
+        <v>3278.032949699957</v>
       </c>
       <c r="R14" t="n">
         <v>3337.665064981818</v>
       </c>
       <c r="S14" t="n">
-        <v>3254.343021218104</v>
+        <v>3337.665064981818</v>
       </c>
       <c r="T14" t="n">
-        <v>3075.149981717511</v>
+        <v>3337.665064981818</v>
       </c>
       <c r="U14" t="n">
-        <v>2848.361280919529</v>
+        <v>3110.876364183835</v>
       </c>
       <c r="V14" t="n">
-        <v>2544.039370301124</v>
+        <v>3110.876364183835</v>
       </c>
       <c r="W14" t="n">
-        <v>2218.011691756176</v>
+        <v>3110.876364183835</v>
       </c>
       <c r="X14" t="n">
-        <v>1871.286910220262</v>
+        <v>2866.11078250823</v>
       </c>
       <c r="Y14" t="n">
-        <v>1871.286910220262</v>
+        <v>2502.712427257584</v>
       </c>
     </row>
     <row r="15">
@@ -5349,16 +5349,16 @@
         <v>176.026832166746</v>
       </c>
       <c r="H15" t="n">
-        <v>85.57656061757152</v>
+        <v>85.5765606175715</v>
       </c>
       <c r="I15" t="n">
-        <v>66.75330129963636</v>
+        <v>66.75330129963635</v>
       </c>
       <c r="J15" t="n">
-        <v>152.335168860451</v>
+        <v>160.9255199611669</v>
       </c>
       <c r="K15" t="n">
-        <v>391.4453148082329</v>
+        <v>400.0356659089488</v>
       </c>
       <c r="L15" t="n">
         <v>759.2809552149541</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>764.5692444891225</v>
+        <v>633.4056321256955</v>
       </c>
       <c r="C16" t="n">
-        <v>762.293737502948</v>
+        <v>633.4056321256955</v>
       </c>
       <c r="D16" t="n">
-        <v>638.918074815778</v>
+        <v>510.0299694385257</v>
       </c>
       <c r="E16" t="n">
-        <v>517.7459579585507</v>
+        <v>388.8578525812983</v>
       </c>
       <c r="F16" t="n">
-        <v>397.596987185806</v>
+        <v>268.7088818085537</v>
       </c>
       <c r="G16" t="n">
-        <v>256.6396084726823</v>
+        <v>127.7515030954301</v>
       </c>
       <c r="H16" t="n">
-        <v>137.2032402418678</v>
+        <v>127.7515030954301</v>
       </c>
       <c r="I16" t="n">
-        <v>66.75330129963636</v>
+        <v>66.75330129963635</v>
       </c>
       <c r="J16" t="n">
         <v>138.3952802388012</v>
@@ -5458,28 +5458,28 @@
         <v>2141.560463625834</v>
       </c>
       <c r="R16" t="n">
-        <v>2078.672473570897</v>
+        <v>2141.560463625834</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.805660990734</v>
+        <v>1976.693651045671</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.799169175299</v>
+        <v>1781.687159230237</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.43752345449</v>
+        <v>1519.325513509427</v>
       </c>
       <c r="V16" t="n">
-        <v>1228.494011973769</v>
+        <v>1291.382002028706</v>
       </c>
       <c r="W16" t="n">
-        <v>965.8178186619741</v>
+        <v>1028.705808716911</v>
       </c>
       <c r="X16" t="n">
-        <v>764.5692444891225</v>
+        <v>827.4572345440598</v>
       </c>
       <c r="Y16" t="n">
-        <v>764.5692444891225</v>
+        <v>633.4056321256955</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1825.483117907748</v>
+        <v>1526.005285620572</v>
       </c>
       <c r="C17" t="n">
-        <v>1530.508526941241</v>
+        <v>1231.030694654065</v>
       </c>
       <c r="D17" t="n">
-        <v>1246.230754308395</v>
+        <v>946.7529220212193</v>
       </c>
       <c r="E17" t="n">
-        <v>968.3191782025025</v>
+        <v>634.9525953968799</v>
       </c>
       <c r="F17" t="n">
-        <v>631.3211993867997</v>
+        <v>631.3211993867994</v>
       </c>
       <c r="G17" t="n">
         <v>290.246665243398</v>
@@ -5513,13 +5513,13 @@
         <v>66.75330129963636</v>
       </c>
       <c r="J17" t="n">
-        <v>256.4634511706199</v>
+        <v>256.4634511706207</v>
       </c>
       <c r="K17" t="n">
-        <v>591.5283067900637</v>
+        <v>591.5283067900634</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.107650505183</v>
+        <v>1044.107650505182</v>
       </c>
       <c r="M17" t="n">
         <v>1579.35881053609</v>
@@ -5549,16 +5549,16 @@
         <v>2990.102128665746</v>
       </c>
       <c r="V17" t="n">
-        <v>2733.027167296081</v>
+        <v>2733.02716729608</v>
       </c>
       <c r="W17" t="n">
-        <v>2454.246437999872</v>
+        <v>2454.246437999871</v>
       </c>
       <c r="X17" t="n">
-        <v>2454.246437999872</v>
+        <v>2154.768605712696</v>
       </c>
       <c r="Y17" t="n">
-        <v>2138.095031997965</v>
+        <v>1838.617199710789</v>
       </c>
     </row>
     <row r="18">
@@ -5598,7 +5598,7 @@
         <v>400.0356659089488</v>
       </c>
       <c r="L18" t="n">
-        <v>759.2809552149541</v>
+        <v>767.87130631567</v>
       </c>
       <c r="M18" t="n">
         <v>1207.884666055563</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.1620468976553</v>
+        <v>631.1620468976557</v>
       </c>
       <c r="C19" t="n">
-        <v>536.2137899436532</v>
+        <v>536.2137899436536</v>
       </c>
       <c r="D19" t="n">
-        <v>460.0850765052222</v>
+        <v>460.0850765052227</v>
       </c>
       <c r="E19" t="n">
-        <v>386.1599088967339</v>
+        <v>386.1599088967344</v>
       </c>
       <c r="F19" t="n">
-        <v>313.2578873727283</v>
+        <v>313.2578873727288</v>
       </c>
       <c r="G19" t="n">
-        <v>219.5474579083436</v>
+        <v>162.1457099752042</v>
       </c>
       <c r="H19" t="n">
-        <v>147.3580389262681</v>
+        <v>89.95629099312875</v>
       </c>
       <c r="I19" t="n">
         <v>66.75330129963636</v>
@@ -5695,28 +5695,28 @@
         <v>1931.889813319154</v>
       </c>
       <c r="R19" t="n">
-        <v>1916.248772512956</v>
+        <v>1916.248772512957</v>
       </c>
       <c r="S19" t="n">
-        <v>1798.628909181532</v>
+        <v>1798.628909181533</v>
       </c>
       <c r="T19" t="n">
         <v>1650.869366614837</v>
       </c>
       <c r="U19" t="n">
-        <v>1435.754670142766</v>
+        <v>1435.754670142767</v>
       </c>
       <c r="V19" t="n">
         <v>1255.058107910784</v>
       </c>
       <c r="W19" t="n">
-        <v>1039.628863847728</v>
+        <v>1039.628863847729</v>
       </c>
       <c r="X19" t="n">
-        <v>885.6272389236156</v>
+        <v>885.627238923616</v>
       </c>
       <c r="Y19" t="n">
-        <v>738.8225857539902</v>
+        <v>738.8225857539907</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1635.878504482433</v>
+        <v>1859.371868426194</v>
       </c>
       <c r="C20" t="n">
-        <v>1340.903913515926</v>
+        <v>1564.397277459688</v>
       </c>
       <c r="D20" t="n">
-        <v>1056.62614088308</v>
+        <v>1280.119504826842</v>
       </c>
       <c r="E20" t="n">
-        <v>744.8258142587406</v>
+        <v>968.3191782025024</v>
       </c>
       <c r="F20" t="n">
-        <v>407.827835443038</v>
+        <v>631.3211993867997</v>
       </c>
       <c r="G20" t="n">
-        <v>66.75330129963638</v>
+        <v>290.246665243398</v>
       </c>
       <c r="H20" t="n">
-        <v>66.75330129963638</v>
+        <v>66.75330129963636</v>
       </c>
       <c r="I20" t="n">
-        <v>66.75330129963638</v>
+        <v>66.75330129963636</v>
       </c>
       <c r="J20" t="n">
-        <v>256.4634511706207</v>
+        <v>256.4634511706201</v>
       </c>
       <c r="K20" t="n">
-        <v>591.5283067900634</v>
+        <v>591.528306790063</v>
       </c>
       <c r="L20" t="n">
         <v>1044.107650505182</v>
@@ -5762,13 +5762,13 @@
         <v>1579.35881053609</v>
       </c>
       <c r="N20" t="n">
-        <v>2127.88470230299</v>
+        <v>2127.884702302989</v>
       </c>
       <c r="O20" t="n">
         <v>2632.506886287996</v>
       </c>
       <c r="P20" t="n">
-        <v>3028.689244613402</v>
+        <v>3028.689244613401</v>
       </c>
       <c r="Q20" t="n">
         <v>3278.032949699958</v>
@@ -5780,22 +5780,22 @@
         <v>3301.589970466843</v>
       </c>
       <c r="T20" t="n">
-        <v>3169.64388021499</v>
+        <v>3224.229733724402</v>
       </c>
       <c r="U20" t="n">
-        <v>2990.102128665746</v>
+        <v>3044.687982175159</v>
       </c>
       <c r="V20" t="n">
-        <v>2733.02716729608</v>
+        <v>2787.613020805493</v>
       </c>
       <c r="W20" t="n">
-        <v>2564.119656861732</v>
+        <v>2787.613020805493</v>
       </c>
       <c r="X20" t="n">
-        <v>2264.641824574557</v>
+        <v>2488.135188518318</v>
       </c>
       <c r="Y20" t="n">
-        <v>1948.49041857265</v>
+        <v>2171.983782516411</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>176.026832166746</v>
       </c>
       <c r="H21" t="n">
-        <v>85.57656061757153</v>
+        <v>85.57656061757152</v>
       </c>
       <c r="I21" t="n">
-        <v>66.75330129963638</v>
+        <v>66.75330129963636</v>
       </c>
       <c r="J21" t="n">
         <v>160.9255199611669</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.1620468976553</v>
+        <v>631.1620468976557</v>
       </c>
       <c r="C22" t="n">
-        <v>536.2137899436532</v>
+        <v>536.2137899436536</v>
       </c>
       <c r="D22" t="n">
-        <v>460.0850765052222</v>
+        <v>460.0850765052227</v>
       </c>
       <c r="E22" t="n">
-        <v>386.1599088967339</v>
+        <v>328.7581609635944</v>
       </c>
       <c r="F22" t="n">
-        <v>313.2578873727283</v>
+        <v>255.8561394395888</v>
       </c>
       <c r="G22" t="n">
-        <v>219.5474579083436</v>
+        <v>162.1457099752042</v>
       </c>
       <c r="H22" t="n">
-        <v>89.95629099312879</v>
+        <v>89.95629099312875</v>
       </c>
       <c r="I22" t="n">
-        <v>66.75330129963638</v>
+        <v>66.75330129963636</v>
       </c>
       <c r="J22" t="n">
-        <v>112.1864489504663</v>
+        <v>112.1864489504662</v>
       </c>
       <c r="K22" t="n">
-        <v>316.6839037658425</v>
+        <v>316.6839037658424</v>
       </c>
       <c r="L22" t="n">
         <v>633.8966745230036</v>
@@ -5932,28 +5932,28 @@
         <v>1931.889813319154</v>
       </c>
       <c r="R22" t="n">
-        <v>1916.248772512956</v>
+        <v>1916.248772512957</v>
       </c>
       <c r="S22" t="n">
-        <v>1798.628909181532</v>
+        <v>1798.628909181533</v>
       </c>
       <c r="T22" t="n">
         <v>1650.869366614837</v>
       </c>
       <c r="U22" t="n">
-        <v>1435.754670142766</v>
+        <v>1435.754670142767</v>
       </c>
       <c r="V22" t="n">
         <v>1255.058107910784</v>
       </c>
       <c r="W22" t="n">
-        <v>1039.628863847728</v>
+        <v>1039.628863847729</v>
       </c>
       <c r="X22" t="n">
-        <v>885.6272389236156</v>
+        <v>885.627238923616</v>
       </c>
       <c r="Y22" t="n">
-        <v>738.8225857539902</v>
+        <v>738.8225857539907</v>
       </c>
     </row>
     <row r="23">
@@ -5969,64 +5969,64 @@
         <v>1571.200677108782</v>
       </c>
       <c r="D23" t="n">
-        <v>1286.922904475936</v>
+        <v>1286.922904475937</v>
       </c>
       <c r="E23" t="n">
-        <v>975.1225778515968</v>
+        <v>975.122577851597</v>
       </c>
       <c r="F23" t="n">
-        <v>638.1245990358939</v>
+        <v>638.1245990358943</v>
       </c>
       <c r="G23" t="n">
         <v>297.0500648924923</v>
       </c>
       <c r="H23" t="n">
-        <v>73.55670094873071</v>
+        <v>73.55670094873072</v>
       </c>
       <c r="I23" t="n">
-        <v>73.55670094873071</v>
+        <v>73.55670094873072</v>
       </c>
       <c r="J23" t="n">
         <v>263.266850819715</v>
       </c>
       <c r="K23" t="n">
-        <v>598.3317064391579</v>
+        <v>919.235664884611</v>
       </c>
       <c r="L23" t="n">
-        <v>1050.911050154277</v>
+        <v>1371.81500859973</v>
       </c>
       <c r="M23" t="n">
-        <v>1586.162210185184</v>
+        <v>1907.066168630638</v>
       </c>
       <c r="N23" t="n">
-        <v>2134.688101952084</v>
+        <v>2455.592060397537</v>
       </c>
       <c r="O23" t="n">
-        <v>2639.310285937091</v>
+        <v>2960.214244382544</v>
       </c>
       <c r="P23" t="n">
-        <v>3354.073365352264</v>
+        <v>3368.859227068119</v>
       </c>
       <c r="Q23" t="n">
-        <v>3618.202932154675</v>
+        <v>3618.202932154676</v>
       </c>
       <c r="R23" t="n">
-        <v>3677.835047436535</v>
+        <v>3677.835047436536</v>
       </c>
       <c r="S23" t="n">
         <v>3641.75995292156</v>
       </c>
       <c r="T23" t="n">
-        <v>3509.813862669706</v>
+        <v>3509.813862669707</v>
       </c>
       <c r="U23" t="n">
-        <v>3330.272111120463</v>
+        <v>3330.272111120464</v>
       </c>
       <c r="V23" t="n">
         <v>3073.197149750798</v>
       </c>
       <c r="W23" t="n">
-        <v>2794.416420454588</v>
+        <v>2794.416420454589</v>
       </c>
       <c r="X23" t="n">
         <v>2494.938588167413</v>
@@ -6060,10 +6060,10 @@
         <v>182.8302318158404</v>
       </c>
       <c r="H24" t="n">
-        <v>92.37996026666586</v>
+        <v>92.37996026666588</v>
       </c>
       <c r="I24" t="n">
-        <v>73.55670094873071</v>
+        <v>73.55670094873072</v>
       </c>
       <c r="J24" t="n">
         <v>167.7289196102612</v>
@@ -6078,13 +6078,13 @@
         <v>1223.278416805374</v>
       </c>
       <c r="N24" t="n">
-        <v>1698.163977925678</v>
+        <v>1689.573626824963</v>
       </c>
       <c r="O24" t="n">
-        <v>2110.371694727073</v>
+        <v>2101.781343626358</v>
       </c>
       <c r="P24" t="n">
-        <v>2421.871662091167</v>
+        <v>2413.281310990452</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.591593425606</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637.9654465467495</v>
+        <v>580.5636986136101</v>
       </c>
       <c r="C25" t="n">
-        <v>543.0171895927474</v>
+        <v>485.615441659608</v>
       </c>
       <c r="D25" t="n">
-        <v>466.8884761543164</v>
+        <v>409.486728221177</v>
       </c>
       <c r="E25" t="n">
-        <v>392.9633085458281</v>
+        <v>335.5615606126887</v>
       </c>
       <c r="F25" t="n">
-        <v>320.0612870218225</v>
+        <v>262.6595390886832</v>
       </c>
       <c r="G25" t="n">
         <v>168.9491096242986</v>
       </c>
       <c r="H25" t="n">
-        <v>96.75969064222312</v>
+        <v>96.75969064222311</v>
       </c>
       <c r="I25" t="n">
-        <v>73.55670094873071</v>
+        <v>73.55670094873072</v>
       </c>
       <c r="J25" t="n">
         <v>118.9898485995606</v>
@@ -6169,28 +6169,28 @@
         <v>1938.693212968249</v>
       </c>
       <c r="R25" t="n">
-        <v>1923.052172162051</v>
+        <v>1865.650424228911</v>
       </c>
       <c r="S25" t="n">
-        <v>1805.432308830627</v>
+        <v>1748.030560897487</v>
       </c>
       <c r="T25" t="n">
-        <v>1657.672766263931</v>
+        <v>1600.271018330791</v>
       </c>
       <c r="U25" t="n">
-        <v>1442.55806979186</v>
+        <v>1385.156321858721</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.861507559878</v>
+        <v>1204.459759626739</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.432263496822</v>
+        <v>989.0305155636829</v>
       </c>
       <c r="X25" t="n">
-        <v>892.4306385727098</v>
+        <v>835.0288906395704</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.6259854030844</v>
+        <v>688.224237469945</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2034.261407490618</v>
+        <v>2034.261407490617</v>
       </c>
       <c r="C26" t="n">
-        <v>1712.545839798945</v>
+        <v>1712.545839798944</v>
       </c>
       <c r="D26" t="n">
-        <v>1401.527090440933</v>
+        <v>1401.527090440932</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.985787091428</v>
+        <v>1062.985787091427</v>
       </c>
       <c r="F26" t="n">
-        <v>699.2468315505596</v>
+        <v>699.2468315505585</v>
       </c>
       <c r="G26" t="n">
         <v>331.4313206819912</v>
       </c>
       <c r="H26" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="I26" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9071298840479</v>
+        <v>438.3127789044011</v>
       </c>
       <c r="K26" t="n">
-        <v>926.8759439489436</v>
+        <v>1094.281592969297</v>
       </c>
       <c r="L26" t="n">
-        <v>1379.455287664062</v>
+        <v>1546.860936684416</v>
       </c>
       <c r="M26" t="n">
-        <v>1914.706447694969</v>
+        <v>2082.112096715323</v>
       </c>
       <c r="N26" t="n">
-        <v>2463.232339461869</v>
+        <v>2630.637988482223</v>
       </c>
       <c r="O26" t="n">
-        <v>2971.050845195348</v>
+        <v>3144.498981206061</v>
       </c>
       <c r="P26" t="n">
-        <v>3685.813924610521</v>
+        <v>3540.681339531467</v>
       </c>
       <c r="Q26" t="n">
-        <v>3935.157629697077</v>
+        <v>4000.216885371329</v>
       </c>
       <c r="R26" t="n">
         <v>4059.849000653189</v>
@@ -6257,19 +6257,19 @@
         <v>3838.345862436029</v>
       </c>
       <c r="U26" t="n">
-        <v>3632.06313416162</v>
+        <v>3632.063134161619</v>
       </c>
       <c r="V26" t="n">
-        <v>3348.247196066789</v>
+        <v>3348.247196066788</v>
       </c>
       <c r="W26" t="n">
-        <v>3042.725490045414</v>
+        <v>3042.725490045413</v>
       </c>
       <c r="X26" t="n">
-        <v>2716.506681033073</v>
+        <v>2716.506681033072</v>
       </c>
       <c r="Y26" t="n">
-        <v>2373.614298306</v>
+        <v>2373.614298305999</v>
       </c>
     </row>
     <row r="27">
@@ -6288,43 +6288,43 @@
         <v>632.6002788847297</v>
       </c>
       <c r="E27" t="n">
-        <v>473.3628238792743</v>
+        <v>473.3628238792742</v>
       </c>
       <c r="F27" t="n">
-        <v>326.8282659061592</v>
+        <v>326.8282659061591</v>
       </c>
       <c r="G27" t="n">
-        <v>190.4705108801735</v>
+        <v>190.4705108801734</v>
       </c>
       <c r="H27" t="n">
-        <v>100.020239330999</v>
+        <v>100.0202393309989</v>
       </c>
       <c r="I27" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3691986745942</v>
+        <v>175.3691986745943</v>
       </c>
       <c r="K27" t="n">
-        <v>405.8889935216624</v>
+        <v>414.4793446223762</v>
       </c>
       <c r="L27" t="n">
-        <v>773.7246339283835</v>
+        <v>782.3149850290974</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.328344768992</v>
+        <v>1222.144562071059</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.213905889297</v>
+        <v>1697.030123191364</v>
       </c>
       <c r="O27" t="n">
-        <v>2109.421622690691</v>
+        <v>2109.237839992759</v>
       </c>
       <c r="P27" t="n">
-        <v>2420.921590054785</v>
+        <v>2420.737807356853</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.23187248994</v>
+        <v>2579.048089792007</v>
       </c>
       <c r="R27" t="n">
         <v>2579.23187248994</v>
@@ -6379,16 +6379,16 @@
         <v>131.140946431722</v>
       </c>
       <c r="I28" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J28" t="n">
-        <v>172.9368626225827</v>
+        <v>172.9368626225828</v>
       </c>
       <c r="K28" t="n">
-        <v>423.741052396648</v>
+        <v>423.7410523966481</v>
       </c>
       <c r="L28" t="n">
-        <v>787.260558112498</v>
+        <v>787.2605581124984</v>
       </c>
       <c r="M28" t="n">
         <v>1178.41280641675</v>
@@ -6397,19 +6397,19 @@
         <v>1566.800015603119</v>
       </c>
       <c r="O28" t="n">
-        <v>1913.057140325754</v>
+        <v>1913.057140325753</v>
       </c>
       <c r="P28" t="n">
-        <v>2192.502569529676</v>
+        <v>2192.502569529675</v>
       </c>
       <c r="Q28" t="n">
-        <v>2316.787371702095</v>
+        <v>2316.787371702094</v>
       </c>
       <c r="R28" t="n">
         <v>2274.40535417073</v>
       </c>
       <c r="S28" t="n">
-        <v>2130.044514114141</v>
+        <v>2130.04451411414</v>
       </c>
       <c r="T28" t="n">
         <v>1955.543994822279</v>
@@ -6421,7 +6421,7 @@
         <v>1506.250782667895</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.080561879674</v>
+        <v>1264.080561879673</v>
       </c>
       <c r="X28" t="n">
         <v>1083.337960230396</v>
@@ -6449,16 +6449,16 @@
         <v>1062.985787091427</v>
       </c>
       <c r="F29" t="n">
-        <v>699.2468315505585</v>
+        <v>699.2468315505583</v>
       </c>
       <c r="G29" t="n">
         <v>331.4313206819912</v>
       </c>
       <c r="H29" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="I29" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J29" t="n">
         <v>438.3127789044011</v>
@@ -6470,19 +6470,19 @@
         <v>1225.956978238963</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.226536427775</v>
+        <v>1761.20813826987</v>
       </c>
       <c r="N29" t="n">
-        <v>2754.752428194674</v>
+        <v>2309.73403003677</v>
       </c>
       <c r="O29" t="n">
-        <v>3259.374612179681</v>
+        <v>2814.356214021776</v>
       </c>
       <c r="P29" t="n">
-        <v>3655.556970505086</v>
+        <v>3529.119293436949</v>
       </c>
       <c r="Q29" t="n">
-        <v>3935.157629697077</v>
+        <v>3935.157629697076</v>
       </c>
       <c r="R29" t="n">
         <v>4059.849000653189</v>
@@ -6494,7 +6494,7 @@
         <v>3838.345862436029</v>
       </c>
       <c r="U29" t="n">
-        <v>3632.063134161619</v>
+        <v>3632.06313416162</v>
       </c>
       <c r="V29" t="n">
         <v>3348.247196066788</v>
@@ -6537,28 +6537,28 @@
         <v>100.0202393309989</v>
       </c>
       <c r="I30" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J30" t="n">
-        <v>166.595064875947</v>
+        <v>175.3691986745943</v>
       </c>
       <c r="K30" t="n">
-        <v>405.7052108237289</v>
+        <v>414.4793446223762</v>
       </c>
       <c r="L30" t="n">
-        <v>773.5408512304501</v>
+        <v>782.3149850290974</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.144562071059</v>
+        <v>1230.918695869706</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.030123191364</v>
+        <v>1705.804256990011</v>
       </c>
       <c r="O30" t="n">
-        <v>2109.237839992759</v>
+        <v>2118.011973791406</v>
       </c>
       <c r="P30" t="n">
-        <v>2420.737807356853</v>
+        <v>2429.5119411555</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.048089792007</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>775.3908147541035</v>
+        <v>775.3908147541033</v>
       </c>
       <c r="C31" t="n">
-        <v>653.7015810749356</v>
+        <v>653.7015810749353</v>
       </c>
       <c r="D31" t="n">
-        <v>550.8318909113389</v>
+        <v>550.8318909113386</v>
       </c>
       <c r="E31" t="n">
-        <v>450.1657465776847</v>
+        <v>450.1657465776844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.5227483285136</v>
+        <v>350.5227483285131</v>
       </c>
       <c r="G31" t="n">
-        <v>230.0713421389631</v>
+        <v>230.0713421389627</v>
       </c>
       <c r="H31" t="n">
-        <v>131.1409464317219</v>
+        <v>131.1409464317214</v>
       </c>
       <c r="I31" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J31" t="n">
         <v>172.9368626225828</v>
       </c>
       <c r="K31" t="n">
-        <v>423.7410523966481</v>
+        <v>423.741052396648</v>
       </c>
       <c r="L31" t="n">
-        <v>787.2605581124983</v>
+        <v>787.2605581124982</v>
       </c>
       <c r="M31" t="n">
         <v>1178.41280641675</v>
       </c>
       <c r="N31" t="n">
-        <v>1566.800015603119</v>
+        <v>1566.800015603118</v>
       </c>
       <c r="O31" t="n">
-        <v>1913.057140325754</v>
+        <v>1913.057140325753</v>
       </c>
       <c r="P31" t="n">
-        <v>2192.502569529676</v>
+        <v>2192.502569529675</v>
       </c>
       <c r="Q31" t="n">
-        <v>2316.787371702095</v>
+        <v>2316.787371702094</v>
       </c>
       <c r="R31" t="n">
         <v>2274.405354170731</v>
@@ -6649,22 +6649,22 @@
         <v>2130.044514114141</v>
       </c>
       <c r="T31" t="n">
-        <v>1955.54399482228</v>
+        <v>1955.543994822279</v>
       </c>
       <c r="U31" t="n">
-        <v>1713.688321625044</v>
+        <v>1713.688321625043</v>
       </c>
       <c r="V31" t="n">
-        <v>1506.250782667896</v>
+        <v>1506.250782667895</v>
       </c>
       <c r="W31" t="n">
         <v>1264.080561879674</v>
       </c>
       <c r="X31" t="n">
-        <v>1083.337960230396</v>
+        <v>1083.337960230395</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.7923303356042</v>
+        <v>909.792330335604</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2034.261407490616</v>
       </c>
       <c r="C32" t="n">
-        <v>1712.545839798943</v>
+        <v>1712.545839798944</v>
       </c>
       <c r="D32" t="n">
         <v>1401.527090440932</v>
@@ -6686,16 +6686,16 @@
         <v>1062.985787091427</v>
       </c>
       <c r="F32" t="n">
-        <v>699.2468315505585</v>
+        <v>699.2468315505586</v>
       </c>
       <c r="G32" t="n">
         <v>331.4313206819912</v>
       </c>
       <c r="H32" t="n">
-        <v>81.19698001306381</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="I32" t="n">
-        <v>81.19698001306381</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J32" t="n">
         <v>438.3127789044011</v>
@@ -6716,19 +6716,19 @@
         <v>2814.356214021776</v>
       </c>
       <c r="P32" t="n">
-        <v>3475.622083857215</v>
+        <v>3529.119293436949</v>
       </c>
       <c r="Q32" t="n">
-        <v>3935.157629697077</v>
+        <v>3935.157629697076</v>
       </c>
       <c r="R32" t="n">
-        <v>4059.84900065319</v>
+        <v>4059.849000653189</v>
       </c>
       <c r="S32" t="n">
-        <v>3997.032929413049</v>
+        <v>3997.032929413048</v>
       </c>
       <c r="T32" t="n">
-        <v>3838.34586243603</v>
+        <v>3838.345862436028</v>
       </c>
       <c r="U32" t="n">
         <v>3632.06313416162</v>
@@ -6771,34 +6771,34 @@
         <v>190.4705108801734</v>
       </c>
       <c r="H33" t="n">
-        <v>100.020239330999</v>
+        <v>100.0202393309989</v>
       </c>
       <c r="I33" t="n">
-        <v>81.19698001306381</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J33" t="n">
-        <v>166.595064875947</v>
+        <v>166.7788475738792</v>
       </c>
       <c r="K33" t="n">
-        <v>405.7052108237289</v>
+        <v>405.8889935216611</v>
       </c>
       <c r="L33" t="n">
-        <v>773.5408512304501</v>
+        <v>773.7246339283823</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.144562071059</v>
+        <v>1222.328344768991</v>
       </c>
       <c r="N33" t="n">
-        <v>1697.030123191364</v>
+        <v>1697.213905889296</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.237839992759</v>
+        <v>2109.421622690691</v>
       </c>
       <c r="P33" t="n">
-        <v>2420.737807356853</v>
+        <v>2420.921590054785</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.048089792007</v>
+        <v>2579.23187248994</v>
       </c>
       <c r="R33" t="n">
         <v>2579.23187248994</v>
@@ -6850,19 +6850,19 @@
         <v>230.0713421389626</v>
       </c>
       <c r="H34" t="n">
-        <v>131.1409464317214</v>
+        <v>131.1409464317217</v>
       </c>
       <c r="I34" t="n">
-        <v>81.19698001306381</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J34" t="n">
-        <v>172.9368626225828</v>
+        <v>172.9368626225827</v>
       </c>
       <c r="K34" t="n">
-        <v>423.7410523966482</v>
+        <v>423.7410523966481</v>
       </c>
       <c r="L34" t="n">
-        <v>787.2605581124984</v>
+        <v>787.2605581124983</v>
       </c>
       <c r="M34" t="n">
         <v>1178.41280641675</v>
@@ -6883,7 +6883,7 @@
         <v>2274.40535417073</v>
       </c>
       <c r="S34" t="n">
-        <v>2130.04451411414</v>
+        <v>2130.044514114141</v>
       </c>
       <c r="T34" t="n">
         <v>1955.543994822279</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2034.261407490617</v>
+        <v>2034.261407490616</v>
       </c>
       <c r="C35" t="n">
-        <v>1712.545839798944</v>
+        <v>1712.545839798943</v>
       </c>
       <c r="D35" t="n">
-        <v>1401.527090440933</v>
+        <v>1401.527090440932</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.985787091428</v>
+        <v>1062.985787091427</v>
       </c>
       <c r="F35" t="n">
-        <v>699.2468315505594</v>
+        <v>699.246831550558</v>
       </c>
       <c r="G35" t="n">
         <v>331.4313206819912</v>
       </c>
       <c r="H35" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306377</v>
       </c>
       <c r="I35" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306377</v>
       </c>
       <c r="J35" t="n">
         <v>438.3127789044011</v>
@@ -6944,43 +6944,43 @@
         <v>1225.956978238963</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.226536427775</v>
+        <v>1761.20813826987</v>
       </c>
       <c r="N35" t="n">
-        <v>2754.752428194674</v>
+        <v>2309.73403003677</v>
       </c>
       <c r="O35" t="n">
-        <v>3259.374612179681</v>
+        <v>2814.356214021776</v>
       </c>
       <c r="P35" t="n">
-        <v>3655.556970505086</v>
+        <v>3529.119293436949</v>
       </c>
       <c r="Q35" t="n">
-        <v>3935.157629697077</v>
+        <v>3988.654839276811</v>
       </c>
       <c r="R35" t="n">
-        <v>4059.84900065319</v>
+        <v>4059.849000653188</v>
       </c>
       <c r="S35" t="n">
-        <v>3997.032929413049</v>
+        <v>3997.032929413047</v>
       </c>
       <c r="T35" t="n">
-        <v>3838.345862436029</v>
+        <v>3838.345862436028</v>
       </c>
       <c r="U35" t="n">
         <v>3632.06313416162</v>
       </c>
       <c r="V35" t="n">
-        <v>3348.247196066789</v>
+        <v>3348.247196066788</v>
       </c>
       <c r="W35" t="n">
-        <v>3042.725490045414</v>
+        <v>3042.725490045413</v>
       </c>
       <c r="X35" t="n">
-        <v>2716.506681033073</v>
+        <v>2716.506681033072</v>
       </c>
       <c r="Y35" t="n">
-        <v>2373.614298306</v>
+        <v>2373.614298305999</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>100.0202393309989</v>
       </c>
       <c r="I36" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306377</v>
       </c>
       <c r="J36" t="n">
-        <v>166.595064875947</v>
+        <v>175.3691986745943</v>
       </c>
       <c r="K36" t="n">
-        <v>405.7052108237289</v>
+        <v>414.4793446223762</v>
       </c>
       <c r="L36" t="n">
-        <v>773.5408512304501</v>
+        <v>773.7246339283823</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.144562071059</v>
+        <v>1222.328344768991</v>
       </c>
       <c r="N36" t="n">
-        <v>1697.030123191364</v>
+        <v>1697.213905889296</v>
       </c>
       <c r="O36" t="n">
-        <v>2109.237839992759</v>
+        <v>2109.421622690691</v>
       </c>
       <c r="P36" t="n">
-        <v>2420.737807356853</v>
+        <v>2420.921590054785</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.048089792007</v>
+        <v>2579.23187248994</v>
       </c>
       <c r="R36" t="n">
         <v>2579.23187248994</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.3908147541035</v>
+        <v>775.3908147541038</v>
       </c>
       <c r="C37" t="n">
-        <v>653.7015810749356</v>
+        <v>653.7015810749358</v>
       </c>
       <c r="D37" t="n">
-        <v>550.8318909113389</v>
+        <v>550.8318909113391</v>
       </c>
       <c r="E37" t="n">
-        <v>450.1657465776848</v>
+        <v>450.165746577685</v>
       </c>
       <c r="F37" t="n">
-        <v>350.5227483285134</v>
+        <v>350.5227483285136</v>
       </c>
       <c r="G37" t="n">
-        <v>230.071342138963</v>
+        <v>230.0713421389632</v>
       </c>
       <c r="H37" t="n">
-        <v>131.1409464317218</v>
+        <v>131.1409464317219</v>
       </c>
       <c r="I37" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306377</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9368626225825</v>
+        <v>172.9368626225827</v>
       </c>
       <c r="K37" t="n">
-        <v>423.7410523966479</v>
+        <v>423.741052396648</v>
       </c>
       <c r="L37" t="n">
-        <v>787.2605581124981</v>
+        <v>787.2605581124982</v>
       </c>
       <c r="M37" t="n">
         <v>1178.41280641675</v>
       </c>
       <c r="N37" t="n">
-        <v>1566.800015603118</v>
+        <v>1566.800015603119</v>
       </c>
       <c r="O37" t="n">
-        <v>1913.057140325753</v>
+        <v>1913.057140325754</v>
       </c>
       <c r="P37" t="n">
-        <v>2192.502569529675</v>
+        <v>2192.502569529676</v>
       </c>
       <c r="Q37" t="n">
-        <v>2316.787371702094</v>
+        <v>2316.787371702095</v>
       </c>
       <c r="R37" t="n">
-        <v>2274.40535417073</v>
+        <v>2274.405354170731</v>
       </c>
       <c r="S37" t="n">
         <v>2130.044514114141</v>
       </c>
       <c r="T37" t="n">
-        <v>1955.543994822279</v>
+        <v>1955.54399482228</v>
       </c>
       <c r="U37" t="n">
         <v>1713.688321625043</v>
       </c>
       <c r="V37" t="n">
-        <v>1506.250782667895</v>
+        <v>1506.250782667896</v>
       </c>
       <c r="W37" t="n">
-        <v>1264.080561879673</v>
+        <v>1264.080561879674</v>
       </c>
       <c r="X37" t="n">
-        <v>1083.337960230395</v>
+        <v>1083.337960230396</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.7923303356042</v>
+        <v>909.7923303356044</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2034.261407490617</v>
+        <v>2034.261407490616</v>
       </c>
       <c r="C38" t="n">
-        <v>1712.545839798944</v>
+        <v>1712.545839798943</v>
       </c>
       <c r="D38" t="n">
-        <v>1401.527090440933</v>
+        <v>1401.527090440932</v>
       </c>
       <c r="E38" t="n">
         <v>1062.985787091427</v>
       </c>
       <c r="F38" t="n">
-        <v>699.2468315505591</v>
+        <v>699.246831550558</v>
       </c>
       <c r="G38" t="n">
         <v>331.4313206819912</v>
       </c>
       <c r="H38" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="I38" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J38" t="n">
         <v>438.3127789044011</v>
       </c>
       <c r="K38" t="n">
-        <v>930.0722656974147</v>
+        <v>773.3776345238439</v>
       </c>
       <c r="L38" t="n">
-        <v>1382.651609412534</v>
+        <v>1225.956978238963</v>
       </c>
       <c r="M38" t="n">
-        <v>1917.902769443441</v>
+        <v>1761.20813826987</v>
       </c>
       <c r="N38" t="n">
-        <v>2466.428661210341</v>
+        <v>2309.73403003677</v>
       </c>
       <c r="O38" t="n">
-        <v>2971.050845195347</v>
+        <v>2814.356214021776</v>
       </c>
       <c r="P38" t="n">
-        <v>3685.81392461052</v>
+        <v>3529.119293436949</v>
       </c>
       <c r="Q38" t="n">
-        <v>3935.157629697077</v>
+        <v>3935.157629697076</v>
       </c>
       <c r="R38" t="n">
-        <v>4059.84900065319</v>
+        <v>4059.849000653189</v>
       </c>
       <c r="S38" t="n">
-        <v>3997.032929413049</v>
+        <v>3997.032929413048</v>
       </c>
       <c r="T38" t="n">
-        <v>3838.345862436029</v>
+        <v>3838.345862436028</v>
       </c>
       <c r="U38" t="n">
-        <v>3632.06313416162</v>
+        <v>3632.063134161619</v>
       </c>
       <c r="V38" t="n">
-        <v>3348.247196066789</v>
+        <v>3348.247196066788</v>
       </c>
       <c r="W38" t="n">
-        <v>3042.725490045414</v>
+        <v>3042.725490045413</v>
       </c>
       <c r="X38" t="n">
-        <v>2716.506681033073</v>
+        <v>2716.506681033072</v>
       </c>
       <c r="Y38" t="n">
-        <v>2373.614298306</v>
+        <v>2373.614298305999</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.0202393309989</v>
       </c>
       <c r="I39" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J39" t="n">
         <v>175.3691986745943</v>
@@ -7269,7 +7269,7 @@
         <v>2118.011973791406</v>
       </c>
       <c r="P39" t="n">
-        <v>2429.5119411555</v>
+        <v>2420.921590054785</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.23187248994</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.3908147541038</v>
+        <v>775.3908147541035</v>
       </c>
       <c r="C40" t="n">
-        <v>653.7015810749358</v>
+        <v>653.7015810749356</v>
       </c>
       <c r="D40" t="n">
-        <v>550.8318909113391</v>
+        <v>550.8318909113389</v>
       </c>
       <c r="E40" t="n">
-        <v>450.165746577685</v>
+        <v>450.1657465776848</v>
       </c>
       <c r="F40" t="n">
-        <v>350.5227483285137</v>
+        <v>350.5227483285134</v>
       </c>
       <c r="G40" t="n">
-        <v>230.0713421389632</v>
+        <v>230.071342138963</v>
       </c>
       <c r="H40" t="n">
-        <v>131.140946431722</v>
+        <v>131.1409464317217</v>
       </c>
       <c r="I40" t="n">
-        <v>81.19698001306379</v>
+        <v>81.19698001306378</v>
       </c>
       <c r="J40" t="n">
         <v>172.9368626225827</v>
       </c>
       <c r="K40" t="n">
-        <v>423.741052396648</v>
+        <v>423.7410523966481</v>
       </c>
       <c r="L40" t="n">
-        <v>787.2605581124982</v>
+        <v>787.2605581124983</v>
       </c>
       <c r="M40" t="n">
-        <v>1178.412806416751</v>
+        <v>1178.41280641675</v>
       </c>
       <c r="N40" t="n">
         <v>1566.800015603119</v>
       </c>
       <c r="O40" t="n">
-        <v>1913.057140325754</v>
+        <v>1913.057140325753</v>
       </c>
       <c r="P40" t="n">
-        <v>2192.502569529676</v>
+        <v>2192.502569529675</v>
       </c>
       <c r="Q40" t="n">
-        <v>2316.787371702095</v>
+        <v>2316.787371702094</v>
       </c>
       <c r="R40" t="n">
-        <v>2274.405354170731</v>
+        <v>2274.40535417073</v>
       </c>
       <c r="S40" t="n">
         <v>2130.044514114141</v>
       </c>
       <c r="T40" t="n">
-        <v>1955.54399482228</v>
+        <v>1955.543994822279</v>
       </c>
       <c r="U40" t="n">
         <v>1713.688321625043</v>
       </c>
       <c r="V40" t="n">
-        <v>1506.250782667896</v>
+        <v>1506.250782667895</v>
       </c>
       <c r="W40" t="n">
-        <v>1264.080561879674</v>
+        <v>1264.080561879673</v>
       </c>
       <c r="X40" t="n">
-        <v>1083.337960230396</v>
+        <v>1083.337960230395</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.7923303356044</v>
+        <v>909.7923303356042</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2034.261407490616</v>
+        <v>2034.261407490617</v>
       </c>
       <c r="C41" t="n">
         <v>1712.545839798944</v>
       </c>
       <c r="D41" t="n">
-        <v>1401.527090440932</v>
+        <v>1401.527090440933</v>
       </c>
       <c r="E41" t="n">
         <v>1062.985787091427</v>
       </c>
       <c r="F41" t="n">
-        <v>699.2468315505586</v>
+        <v>699.2468315505589</v>
       </c>
       <c r="G41" t="n">
         <v>331.4313206819912</v>
@@ -7412,49 +7412,49 @@
         <v>438.3127789044011</v>
       </c>
       <c r="K41" t="n">
-        <v>1038.461146033876</v>
+        <v>773.3776345238439</v>
       </c>
       <c r="L41" t="n">
-        <v>1491.040489748995</v>
+        <v>1225.956978238963</v>
       </c>
       <c r="M41" t="n">
-        <v>2026.291649779903</v>
+        <v>1761.20813826987</v>
       </c>
       <c r="N41" t="n">
-        <v>2574.817541546803</v>
+        <v>2309.73403003677</v>
       </c>
       <c r="O41" t="n">
-        <v>3079.439725531809</v>
+        <v>2814.356214021776</v>
       </c>
       <c r="P41" t="n">
-        <v>3475.622083857214</v>
+        <v>3475.622083857215</v>
       </c>
       <c r="Q41" t="n">
         <v>3935.157629697077</v>
       </c>
       <c r="R41" t="n">
-        <v>4059.849000653189</v>
+        <v>4059.84900065319</v>
       </c>
       <c r="S41" t="n">
-        <v>3997.032929413048</v>
+        <v>3997.032929413049</v>
       </c>
       <c r="T41" t="n">
         <v>3838.345862436029</v>
       </c>
       <c r="U41" t="n">
-        <v>3632.063134161619</v>
+        <v>3632.06313416162</v>
       </c>
       <c r="V41" t="n">
-        <v>3348.247196066788</v>
+        <v>3348.247196066789</v>
       </c>
       <c r="W41" t="n">
-        <v>3042.725490045413</v>
+        <v>3042.725490045414</v>
       </c>
       <c r="X41" t="n">
-        <v>2716.506681033072</v>
+        <v>2716.506681033073</v>
       </c>
       <c r="Y41" t="n">
-        <v>2373.614298305999</v>
+        <v>2373.614298306</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>775.390814754104</v>
+        <v>775.3908147541038</v>
       </c>
       <c r="C43" t="n">
-        <v>653.701581074936</v>
+        <v>653.7015810749358</v>
       </c>
       <c r="D43" t="n">
-        <v>550.8318909113393</v>
+        <v>550.8318909113391</v>
       </c>
       <c r="E43" t="n">
-        <v>450.1657465776852</v>
+        <v>450.165746577685</v>
       </c>
       <c r="F43" t="n">
-        <v>350.5227483285138</v>
+        <v>350.5227483285136</v>
       </c>
       <c r="G43" t="n">
-        <v>230.0713421389633</v>
+        <v>230.0713421389632</v>
       </c>
       <c r="H43" t="n">
         <v>131.140946431722</v>
@@ -7567,22 +7567,22 @@
         <v>81.19698001306379</v>
       </c>
       <c r="J43" t="n">
-        <v>172.9368626225827</v>
+        <v>172.9368626225828</v>
       </c>
       <c r="K43" t="n">
-        <v>423.7410523966491</v>
+        <v>423.7410523966481</v>
       </c>
       <c r="L43" t="n">
-        <v>787.2605581124993</v>
+        <v>787.2605581124983</v>
       </c>
       <c r="M43" t="n">
-        <v>1178.412806416751</v>
+        <v>1178.41280641675</v>
       </c>
       <c r="N43" t="n">
-        <v>1566.80001560312</v>
+        <v>1566.800015603119</v>
       </c>
       <c r="O43" t="n">
-        <v>1913.057140325754</v>
+        <v>1913.057140325753</v>
       </c>
       <c r="P43" t="n">
         <v>2192.502569529676</v>
@@ -7594,13 +7594,13 @@
         <v>2274.405354170731</v>
       </c>
       <c r="S43" t="n">
-        <v>2130.044514114142</v>
+        <v>2130.044514114141</v>
       </c>
       <c r="T43" t="n">
         <v>1955.54399482228</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.688321625044</v>
+        <v>1713.688321625043</v>
       </c>
       <c r="V43" t="n">
         <v>1506.250782667896</v>
@@ -7612,7 +7612,7 @@
         <v>1083.337960230396</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.7923303356047</v>
+        <v>909.7923303356044</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1712.545839798944</v>
       </c>
       <c r="D44" t="n">
-        <v>1401.527090440933</v>
+        <v>1401.527090440932</v>
       </c>
       <c r="E44" t="n">
         <v>1062.985787091427</v>
@@ -7646,34 +7646,34 @@
         <v>81.19698001306379</v>
       </c>
       <c r="J44" t="n">
-        <v>438.3127789044011</v>
+        <v>384.8155693246661</v>
       </c>
       <c r="K44" t="n">
-        <v>773.3776345238439</v>
+        <v>719.8804249441089</v>
       </c>
       <c r="L44" t="n">
-        <v>1225.956978238963</v>
+        <v>1172.459768659228</v>
       </c>
       <c r="M44" t="n">
-        <v>1761.20813826987</v>
+        <v>1707.710928690135</v>
       </c>
       <c r="N44" t="n">
-        <v>2309.73403003677</v>
+        <v>2256.236820457035</v>
       </c>
       <c r="O44" t="n">
-        <v>2814.356214021776</v>
+        <v>2760.859004442042</v>
       </c>
       <c r="P44" t="n">
-        <v>3475.622083857214</v>
+        <v>3475.622083857215</v>
       </c>
       <c r="Q44" t="n">
         <v>3935.157629697077</v>
       </c>
       <c r="R44" t="n">
-        <v>4059.849000653189</v>
+        <v>4059.84900065319</v>
       </c>
       <c r="S44" t="n">
-        <v>3997.032929413048</v>
+        <v>3997.032929413049</v>
       </c>
       <c r="T44" t="n">
         <v>3838.345862436029</v>
@@ -7682,16 +7682,16 @@
         <v>3632.06313416162</v>
       </c>
       <c r="V44" t="n">
-        <v>3348.247196066789</v>
+        <v>3348.247196066788</v>
       </c>
       <c r="W44" t="n">
-        <v>3042.725490045414</v>
+        <v>3042.725490045413</v>
       </c>
       <c r="X44" t="n">
-        <v>2716.506681033073</v>
+        <v>2716.506681033072</v>
       </c>
       <c r="Y44" t="n">
-        <v>2373.614298306</v>
+        <v>2373.614298305999</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>81.19698001306379</v>
       </c>
       <c r="J45" t="n">
-        <v>166.595064875947</v>
+        <v>175.3691986745943</v>
       </c>
       <c r="K45" t="n">
-        <v>405.7052108237289</v>
+        <v>414.4793446223762</v>
       </c>
       <c r="L45" t="n">
-        <v>773.5408512304501</v>
+        <v>782.3149850290974</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.144562071059</v>
+        <v>1230.918695869706</v>
       </c>
       <c r="N45" t="n">
-        <v>1697.030123191364</v>
+        <v>1705.804256990011</v>
       </c>
       <c r="O45" t="n">
-        <v>2109.237839992759</v>
+        <v>2118.011973791406</v>
       </c>
       <c r="P45" t="n">
-        <v>2420.737807356853</v>
+        <v>2429.5119411555</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.048089792007</v>
+        <v>2579.23187248994</v>
       </c>
       <c r="R45" t="n">
         <v>2579.23187248994</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>775.3908147541035</v>
+        <v>775.3908147541036</v>
       </c>
       <c r="C46" t="n">
-        <v>653.7015810749356</v>
+        <v>653.7015810749357</v>
       </c>
       <c r="D46" t="n">
-        <v>550.8318909113389</v>
+        <v>550.831890911339</v>
       </c>
       <c r="E46" t="n">
-        <v>450.1657465776848</v>
+        <v>450.1657465776849</v>
       </c>
       <c r="F46" t="n">
-        <v>350.5227483285134</v>
+        <v>350.5227483285136</v>
       </c>
       <c r="G46" t="n">
-        <v>230.071342138963</v>
+        <v>230.0713421389631</v>
       </c>
       <c r="H46" t="n">
-        <v>131.140946431722</v>
+        <v>131.1409464317219</v>
       </c>
       <c r="I46" t="n">
         <v>81.19698001306379</v>
@@ -7807,7 +7807,7 @@
         <v>172.9368626225827</v>
       </c>
       <c r="K46" t="n">
-        <v>423.7410523966481</v>
+        <v>423.741052396648</v>
       </c>
       <c r="L46" t="n">
         <v>787.2605581124983</v>
@@ -7828,28 +7828,28 @@
         <v>2316.787371702094</v>
       </c>
       <c r="R46" t="n">
-        <v>2274.40535417073</v>
+        <v>2274.405354170731</v>
       </c>
       <c r="S46" t="n">
-        <v>2130.04451411414</v>
+        <v>2130.044514114141</v>
       </c>
       <c r="T46" t="n">
-        <v>1955.543994822279</v>
+        <v>1955.54399482228</v>
       </c>
       <c r="U46" t="n">
         <v>1713.688321625043</v>
       </c>
       <c r="V46" t="n">
-        <v>1506.250782667895</v>
+        <v>1506.250782667896</v>
       </c>
       <c r="W46" t="n">
-        <v>1264.080561879673</v>
+        <v>1264.080561879674</v>
       </c>
       <c r="X46" t="n">
-        <v>1083.337960230395</v>
+        <v>1083.337960230396</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.7923303356042</v>
+        <v>909.7923303356043</v>
       </c>
     </row>
   </sheetData>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>12.58850945471704</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.93521385439865</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>3.228607826740358</v>
+        <v>9.332130039224126</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.56257990447855</v>
+        <v>158.2774052258286</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>267.7611227374078</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>158.2774052258286</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>30.56257990447901</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>11.67883443890621</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>158.277405225829</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>158.2774052258286</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>267.7611227374064</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>267.7611227374073</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>115.0590297379979</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>267.7611227374069</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>356.2602747055665</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.4481586955393</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.26300865934144</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>301.2786915122208</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.8469782040044</v>
       </c>
       <c r="X11" t="n">
-        <v>343.2575337205549</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.7643716981395</v>
       </c>
     </row>
     <row r="12">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.7732541407137</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>122.1419060602982</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.9474810650172</v>
+        <v>118.9474810650171</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.87885345192399</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>100.7113990182391</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>199.2360884311231</v>
+        <v>106.9111807002729</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>328.2094746627689</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>296.9017872041804</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72207329597379</v>
+        <v>14.72207329597376</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.48882332607701</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>177.4011091055867</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>301.2786915122208</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.7674017594989</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>100.9396078617051</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.7643716981395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23653,7 @@
         <v>153.3584132240232</v>
       </c>
       <c r="C16" t="n">
-        <v>138.520502224401</v>
+        <v>140.7732541407137</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.2420045485063</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.357219774973281</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.25911015438765</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.1110863941807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.5498630132625</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>330.032916977566</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>296.4830539643033</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>221.258430304324</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>54.03999497431833</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>108.7744866732421</v>
+        <v>275.9929220032473</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1179947.078366187</v>
+        <v>1179947.078366186</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1179947.078366187</v>
+        <v>1179947.078366186</v>
       </c>
     </row>
     <row r="13">
@@ -26326,7 +26326,7 @@
         <v>255450.3113238723</v>
       </c>
       <c r="G2" t="n">
-        <v>278169.9023855046</v>
+        <v>278169.9023855045</v>
       </c>
       <c r="H2" t="n">
         <v>278169.9023855045</v>
@@ -26335,7 +26335,7 @@
         <v>287364.6194524994</v>
       </c>
       <c r="J2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="K2" t="n">
         <v>287364.6194524993</v>
@@ -26344,13 +26344,13 @@
         <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="N2" t="n">
-        <v>287364.6194524996</v>
-      </c>
       <c r="O2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524993</v>
@@ -26369,25 +26369,25 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>26846.35036165576</v>
+        <v>26846.35036165577</v>
       </c>
       <c r="E3" t="n">
         <v>1116810.721978667</v>
       </c>
       <c r="F3" t="n">
-        <v>2808.45207817695</v>
+        <v>2808.452078176917</v>
       </c>
       <c r="G3" t="n">
-        <v>37419.5838050013</v>
+        <v>37419.58380500129</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22614.58547608518</v>
+        <v>22614.58547608525</v>
       </c>
       <c r="J3" t="n">
-        <v>24987.91469385456</v>
+        <v>24987.9146938545</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>416644.6257773438</v>
       </c>
       <c r="E4" t="n">
-        <v>36523.15298397129</v>
+        <v>36523.15298397132</v>
       </c>
       <c r="F4" t="n">
-        <v>36524.70410269865</v>
+        <v>36524.70410269868</v>
       </c>
       <c r="G4" t="n">
         <v>73509.61664707412</v>
@@ -26436,25 +26436,25 @@
         <v>73509.61664707412</v>
       </c>
       <c r="I4" t="n">
-        <v>83601.33024983655</v>
+        <v>83601.33024983661</v>
       </c>
       <c r="J4" t="n">
-        <v>78211.03981926126</v>
+        <v>78211.03981926113</v>
       </c>
       <c r="K4" t="n">
-        <v>78211.03981926118</v>
+        <v>78211.03981926113</v>
       </c>
       <c r="L4" t="n">
-        <v>78211.0398192612</v>
+        <v>78211.03981926115</v>
       </c>
       <c r="M4" t="n">
-        <v>78211.03981926116</v>
+        <v>78211.03981926115</v>
       </c>
       <c r="N4" t="n">
-        <v>78211.03981926118</v>
+        <v>78211.03981926115</v>
       </c>
       <c r="O4" t="n">
-        <v>78211.03981926113</v>
+        <v>78211.03981926119</v>
       </c>
       <c r="P4" t="n">
         <v>78211.03981926118</v>
@@ -26488,22 +26488,22 @@
         <v>80701.162842024</v>
       </c>
       <c r="I5" t="n">
-        <v>85871.7465753357</v>
+        <v>85871.74657533571</v>
       </c>
       <c r="J5" t="n">
         <v>89452.75236364394</v>
       </c>
       <c r="K5" t="n">
-        <v>89452.75236364396</v>
+        <v>89452.75236364394</v>
       </c>
       <c r="L5" t="n">
-        <v>89452.75236364397</v>
+        <v>89452.75236364394</v>
       </c>
       <c r="M5" t="n">
-        <v>89452.75236364396</v>
+        <v>89452.75236364394</v>
       </c>
       <c r="N5" t="n">
-        <v>89452.75236364396</v>
+        <v>89452.75236364394</v>
       </c>
       <c r="O5" t="n">
         <v>89452.75236364396</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172404.0206151401</v>
+        <v>-172408.4341930082</v>
       </c>
       <c r="C6" t="n">
-        <v>-174881.2445649353</v>
+        <v>-174885.6552037131</v>
       </c>
       <c r="D6" t="n">
-        <v>-191131.3986905125</v>
+        <v>-191135.7842513721</v>
       </c>
       <c r="E6" t="n">
-        <v>-974802.8803861657</v>
+        <v>-975033.6066576946</v>
       </c>
       <c r="F6" t="n">
-        <v>139348.276039601</v>
+        <v>139120.3166958251</v>
       </c>
       <c r="G6" t="n">
-        <v>86539.53909140517</v>
+        <v>86473.86254092658</v>
       </c>
       <c r="H6" t="n">
-        <v>123959.1228964063</v>
+        <v>123893.4463459279</v>
       </c>
       <c r="I6" t="n">
-        <v>95276.95715124194</v>
+        <v>95276.9571512418</v>
       </c>
       <c r="J6" t="n">
-        <v>94712.91257573948</v>
+        <v>94712.9125757398</v>
       </c>
       <c r="K6" t="n">
         <v>119700.8272695942</v>
       </c>
       <c r="L6" t="n">
-        <v>82281.2434645928</v>
+        <v>82281.24346459289</v>
       </c>
       <c r="M6" t="n">
-        <v>-87487.74102247875</v>
+        <v>-87487.74102247866</v>
       </c>
       <c r="N6" t="n">
-        <v>118962.4186942113</v>
+        <v>118962.4186942111</v>
       </c>
       <c r="O6" t="n">
-        <v>119700.8272695945</v>
+        <v>119700.8272695943</v>
       </c>
       <c r="P6" t="n">
         <v>119700.8272695941</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="F2" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="G2" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="H2" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="I2" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="J2" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="K2" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="L2" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="M2" t="n">
         <v>46.77447975625159</v>
@@ -26722,10 +26722,10 @@
         <v>46.77447975625159</v>
       </c>
       <c r="O2" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="P2" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>1092.236872251705</v>
       </c>
       <c r="J3" t="n">
-        <v>1092.236872251704</v>
+        <v>1092.236872251705</v>
       </c>
       <c r="K3" t="n">
         <v>1092.236872251705</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>834.4162662454545</v>
+        <v>834.4162662454544</v>
       </c>
       <c r="G4" t="n">
         <v>834.4162662454545</v>
       </c>
       <c r="H4" t="n">
-        <v>834.4162662454546</v>
+        <v>834.4162662454545</v>
       </c>
       <c r="I4" t="n">
-        <v>919.4587618591338</v>
+        <v>919.4587618591339</v>
       </c>
       <c r="J4" t="n">
         <v>1014.962250163297</v>
@@ -26817,7 +26817,7 @@
         <v>1014.962250163297</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.962250163298</v>
+        <v>1014.962250163297</v>
       </c>
       <c r="M4" t="n">
         <v>1014.962250163297</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>31.347397825883</v>
+        <v>31.34739782588301</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27021,7 +27021,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>3.01481084316174</v>
+        <v>3.014810843161627</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.04249561367919</v>
+        <v>85.04249561367942</v>
       </c>
       <c r="J4" t="n">
-        <v>95.50348830416351</v>
+        <v>95.50348830416328</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>3.01481084316174</v>
+        <v>3.014810843161627</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="C11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="D11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="E11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="F11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="G11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="H11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="I11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="T11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="U11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="V11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="W11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="X11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="C13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="D13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="E13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="F13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="G13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="H13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="I13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="J13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="K13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="L13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="M13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="N13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="O13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="P13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="R13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="S13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="T13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="U13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="V13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="W13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="X13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="C14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="D14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="E14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="F14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="G14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="H14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="I14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="T14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="U14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="V14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="W14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="X14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="C16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="D16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="E16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="F16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="G16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="H16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="I16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="J16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="K16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="L16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="M16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="N16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="O16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="P16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="R16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="S16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="T16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="U16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="V16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="W16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="X16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.47356695791409</v>
+        <v>26.47356695791412</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="C17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="D17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="E17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="F17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="G17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="H17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="I17" t="n">
         <v>41.19564025388789</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="T17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="U17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="V17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="W17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="X17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="C19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="D19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="E19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="F19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="G19" t="n">
-        <v>73.24804671416571</v>
+        <v>16.4203162603572</v>
       </c>
       <c r="H19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="I19" t="n">
-        <v>16.42031626035775</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="S19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="T19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="U19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="V19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="W19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="X19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="C20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="D20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="E20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="F20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="G20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="H20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="I20" t="n">
         <v>41.19564025388789</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="T20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="U20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="V20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="W20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="X20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="C22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="D22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="E22" t="n">
-        <v>73.24804671416571</v>
+        <v>16.42031626035717</v>
       </c>
       <c r="F22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="G22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="H22" t="n">
-        <v>16.42031626035774</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="I22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="S22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="T22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="U22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="V22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="W22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="X22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="C23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="D23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="E23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="F23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="G23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="H23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="I23" t="n">
         <v>41.19564025388789</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="T23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="U23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="V23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="W23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="X23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="C25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="D25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="E25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="F25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="G25" t="n">
-        <v>16.42031626035785</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="H25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="I25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.24804671416571</v>
+        <v>16.42031626035761</v>
       </c>
       <c r="S25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="T25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="U25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="V25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="W25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="X25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.24804671416571</v>
+        <v>73.24804671416574</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="C26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="D26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="E26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="F26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="G26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="H26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="I26" t="n">
-        <v>41.19564025388794</v>
+        <v>41.19564025388789</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="T26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="U26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="V26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="W26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="X26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="C28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="D28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="E28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="F28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="G28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="H28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="I28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="J28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="K28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="L28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="M28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="N28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="O28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="P28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="R28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="S28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="T28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="U28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="V28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="W28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="X28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.77447975625163</v>
+        <v>46.77447975625159</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="C29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="D29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="E29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="F29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="G29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="H29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="I29" t="n">
         <v>41.19564025388789</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="T29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="U29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="V29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="W29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="X29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="C31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="D31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="E31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="F31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="G31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="H31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="I31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="J31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="K31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="L31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="M31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="N31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="O31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="P31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="R31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="S31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="T31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="U31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="V31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="W31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="X31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="C32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="D32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="E32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="F32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="G32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="H32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="I32" t="n">
         <v>41.19564025388789</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="T32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="U32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="V32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="W32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="X32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="C34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="D34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="E34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="F34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="G34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="H34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="I34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="J34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="K34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="L34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="M34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="N34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="O34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="P34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="R34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="S34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="T34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="U34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="V34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="W34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="X34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.77447975625162</v>
+        <v>46.77447975625159</v>
       </c>
     </row>
     <row r="35">
@@ -30177,7 +30177,7 @@
         <v>46.77447975625159</v>
       </c>
       <c r="N37" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625216</v>
       </c>
       <c r="O37" t="n">
         <v>46.77447975625159</v>
@@ -30411,7 +30411,7 @@
         <v>46.77447975625159</v>
       </c>
       <c r="M40" t="n">
-        <v>46.77447975625222</v>
+        <v>46.77447975625159</v>
       </c>
       <c r="N40" t="n">
         <v>46.77447975625159</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="C41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="D41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="E41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="F41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="G41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="H41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="I41" t="n">
         <v>41.19564025388789</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="T41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="U41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="V41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="W41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="X41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="C43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="D43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="E43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="F43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="G43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="H43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="I43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="J43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="K43" t="n">
-        <v>46.7744797562527</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="L43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="M43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="N43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="O43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="P43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625155</v>
       </c>
       <c r="R43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="S43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="T43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="U43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="V43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="W43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="X43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.77447975625157</v>
+        <v>46.77447975625161</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="C44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="D44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="E44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="F44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="G44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="H44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="I44" t="n">
         <v>41.19564025388789</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="T44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="U44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="V44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="W44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="X44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="C46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="D46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="E46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="F46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="G46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="H46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="I46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="J46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="K46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="L46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="M46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="N46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="O46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="P46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="R46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="S46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="T46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="U46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="V46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="W46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="X46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.77447975625159</v>
+        <v>46.77447975625161</v>
       </c>
     </row>
   </sheetData>
@@ -31279,7 +31279,7 @@
         <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0.1512560737906246</v>
       </c>
       <c r="I5" t="n">
         <v>0.5693933635848223</v>
@@ -31297,7 +31297,7 @@
         <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>2.635322776677226</v>
       </c>
       <c r="O5" t="n">
         <v>2.488460569060429</v>
@@ -31315,7 +31315,7 @@
         <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0.06465260227203315</v>
       </c>
       <c r="U5" t="n">
         <v>0.001181543845062855</v>
@@ -31361,10 +31361,10 @@
         <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0.2720738086033227</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0.7465913262578566</v>
       </c>
       <c r="K6" t="n">
         <v>1.276043491891533</v>
@@ -31373,13 +31373,13 @@
         <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>2.002255276817063</v>
       </c>
       <c r="N6" t="n">
         <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>1.880151324242604</v>
       </c>
       <c r="P6" t="n">
         <v>1.508987194773435</v>
@@ -31388,16 +31388,16 @@
         <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0.4906339916673423</v>
       </c>
       <c r="S6" t="n">
         <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0.03185169810273292</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.0005198862584776868</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31443,10 +31443,10 @@
         <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0.4683874052581231</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0.769704389764538</v>
       </c>
       <c r="L7" t="n">
         <v>0.9849566189522113</v>
@@ -31458,10 +31458,10 @@
         <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0.9364134469529769</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0.8012634742900948</v>
       </c>
       <c r="Q7" t="n">
         <v>0.5547532968795902</v>
@@ -32075,13 +32075,13 @@
         <v>80.88735327524419</v>
       </c>
       <c r="J15" t="n">
-        <v>213.2839575361764</v>
+        <v>221.9610798601319</v>
       </c>
       <c r="K15" t="n">
         <v>379.3668389216134</v>
       </c>
       <c r="L15" t="n">
-        <v>510.1055317058552</v>
+        <v>501.4284093818998</v>
       </c>
       <c r="M15" t="n">
         <v>595.269095377179</v>
@@ -32318,10 +32318,10 @@
         <v>379.3668389216134</v>
       </c>
       <c r="L18" t="n">
-        <v>501.4284093818998</v>
+        <v>510.1055317058552</v>
       </c>
       <c r="M18" t="n">
-        <v>595.269095377179</v>
+        <v>586.5919730532236</v>
       </c>
       <c r="N18" t="n">
         <v>611.0240970533382</v>
@@ -32798,7 +32798,7 @@
         <v>595.269095377179</v>
       </c>
       <c r="N24" t="n">
-        <v>611.0240970533382</v>
+        <v>602.3469747293832</v>
       </c>
       <c r="O24" t="n">
         <v>558.9676755569644</v>
@@ -32807,7 +32807,7 @@
         <v>448.6208390952334</v>
       </c>
       <c r="Q24" t="n">
-        <v>291.2140279591922</v>
+        <v>299.8911502831474</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.390901999001824</v>
+        <v>4.390901999001826</v>
       </c>
       <c r="H26" t="n">
-        <v>44.96832509727744</v>
+        <v>44.96832509727746</v>
       </c>
       <c r="I26" t="n">
         <v>169.280249316518</v>
       </c>
       <c r="J26" t="n">
-        <v>372.6723185377813</v>
+        <v>372.6723185377815</v>
       </c>
       <c r="K26" t="n">
-        <v>558.5392001555286</v>
+        <v>558.5392001555289</v>
       </c>
       <c r="L26" t="n">
-        <v>692.9172672074809</v>
+        <v>692.9172672074811</v>
       </c>
       <c r="M26" t="n">
-        <v>771.0039706322295</v>
+        <v>771.0039706322298</v>
       </c>
       <c r="N26" t="n">
-        <v>783.4796209368935</v>
+        <v>783.4796209368939</v>
       </c>
       <c r="O26" t="n">
-        <v>739.8175891843191</v>
+        <v>739.8175891843193</v>
       </c>
       <c r="P26" t="n">
-        <v>631.4171960839615</v>
+        <v>631.4171960839617</v>
       </c>
       <c r="Q26" t="n">
-        <v>474.1680182447085</v>
+        <v>474.1680182447087</v>
       </c>
       <c r="R26" t="n">
-        <v>275.8199976947985</v>
+        <v>275.8199976947986</v>
       </c>
       <c r="S26" t="n">
         <v>100.0576793022542</v>
       </c>
       <c r="T26" t="n">
-        <v>19.22117350063049</v>
+        <v>19.2211735006305</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3512721599201458</v>
+        <v>0.3512721599201459</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.349339687484798</v>
+        <v>2.349339687484799</v>
       </c>
       <c r="H27" t="n">
-        <v>22.68967540281371</v>
+        <v>22.68967540281372</v>
       </c>
       <c r="I27" t="n">
-        <v>80.88735327524417</v>
+        <v>80.88735327524419</v>
       </c>
       <c r="J27" t="n">
-        <v>221.9610798601318</v>
+        <v>221.9610798601319</v>
       </c>
       <c r="K27" t="n">
-        <v>370.6897165976602</v>
+        <v>379.3668389216134</v>
       </c>
       <c r="L27" t="n">
-        <v>510.105531705855</v>
+        <v>510.1055317058552</v>
       </c>
       <c r="M27" t="n">
-        <v>595.2690953771788</v>
+        <v>586.406333964404</v>
       </c>
       <c r="N27" t="n">
-        <v>611.024097053338</v>
+        <v>611.0240970533382</v>
       </c>
       <c r="O27" t="n">
-        <v>558.9676755569642</v>
+        <v>558.9676755569644</v>
       </c>
       <c r="P27" t="n">
-        <v>448.6208390952331</v>
+        <v>448.6208390952334</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.8911502831473</v>
+        <v>299.8911502831474</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>145.8651430527843</v>
       </c>
       <c r="S27" t="n">
-        <v>43.63795428288646</v>
+        <v>43.63795428288648</v>
       </c>
       <c r="T27" t="n">
-        <v>9.469487599993547</v>
+        <v>9.469487599993551</v>
       </c>
       <c r="U27" t="n">
         <v>0.1545618215450526</v>
@@ -33096,43 +33096,43 @@
         <v>1.969607474552254</v>
       </c>
       <c r="H28" t="n">
-        <v>17.51160100101914</v>
+        <v>17.51160100101915</v>
       </c>
       <c r="I28" t="n">
-        <v>59.23146841653507</v>
+        <v>59.23146841653509</v>
       </c>
       <c r="J28" t="n">
-        <v>139.2512484508443</v>
+        <v>139.2512484508444</v>
       </c>
       <c r="K28" t="n">
-        <v>228.83257749798</v>
+        <v>228.8325774979801</v>
       </c>
       <c r="L28" t="n">
-        <v>292.8269148984324</v>
+        <v>292.8269148984325</v>
       </c>
       <c r="M28" t="n">
-        <v>308.7449243973137</v>
+        <v>308.7449243973138</v>
       </c>
       <c r="N28" t="n">
-        <v>301.4036601739828</v>
+        <v>301.4036601739829</v>
       </c>
       <c r="O28" t="n">
-        <v>278.3950637667132</v>
+        <v>278.3950637667133</v>
       </c>
       <c r="P28" t="n">
-        <v>238.215071285847</v>
+        <v>238.2150712858471</v>
       </c>
       <c r="Q28" t="n">
         <v>164.9277677100074</v>
       </c>
       <c r="R28" t="n">
-        <v>88.56071426486767</v>
+        <v>88.56071426486771</v>
       </c>
       <c r="S28" t="n">
-        <v>34.32488662469699</v>
+        <v>34.32488662469701</v>
       </c>
       <c r="T28" t="n">
-        <v>8.4155955730869</v>
+        <v>8.415595573086904</v>
       </c>
       <c r="U28" t="n">
         <v>0.1074331349755776</v>
@@ -33260,7 +33260,7 @@
         <v>80.88735327524419</v>
       </c>
       <c r="J30" t="n">
-        <v>213.0983184473568</v>
+        <v>221.9610798601319</v>
       </c>
       <c r="K30" t="n">
         <v>379.3668389216134</v>
@@ -33281,7 +33281,7 @@
         <v>448.6208390952334</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.8911502831474</v>
+        <v>291.0283888703723</v>
       </c>
       <c r="R30" t="n">
         <v>145.8651430527843</v>
@@ -33497,7 +33497,7 @@
         <v>80.88735327524419</v>
       </c>
       <c r="J33" t="n">
-        <v>213.0983184473568</v>
+        <v>213.2839575361772</v>
       </c>
       <c r="K33" t="n">
         <v>379.3668389216134</v>
@@ -33521,7 +33521,7 @@
         <v>299.8911502831474</v>
       </c>
       <c r="R33" t="n">
-        <v>145.8651430527843</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>43.63795428288648</v>
@@ -33734,13 +33734,13 @@
         <v>80.88735327524419</v>
       </c>
       <c r="J36" t="n">
-        <v>213.0983184473568</v>
+        <v>221.9610798601319</v>
       </c>
       <c r="K36" t="n">
         <v>379.3668389216134</v>
       </c>
       <c r="L36" t="n">
-        <v>510.1055317058552</v>
+        <v>501.4284093819006</v>
       </c>
       <c r="M36" t="n">
         <v>595.269095377179</v>
@@ -33758,7 +33758,7 @@
         <v>299.8911502831474</v>
       </c>
       <c r="R36" t="n">
-        <v>145.8651430527843</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>43.63795428288648</v>
@@ -33989,10 +33989,10 @@
         <v>558.9676755569644</v>
       </c>
       <c r="P39" t="n">
-        <v>448.6208390952334</v>
+        <v>439.9437167712788</v>
       </c>
       <c r="Q39" t="n">
-        <v>291.2140279591927</v>
+        <v>299.8911502831474</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34445,7 +34445,7 @@
         <v>80.88735327524419</v>
       </c>
       <c r="J45" t="n">
-        <v>213.0983184473568</v>
+        <v>221.9610798601319</v>
       </c>
       <c r="K45" t="n">
         <v>379.3668389216134</v>
@@ -34466,10 +34466,10 @@
         <v>448.6208390952334</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.8911502831474</v>
+        <v>291.2140279591927</v>
       </c>
       <c r="R45" t="n">
-        <v>145.8651430527843</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>43.63795428288648</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.05198357098031</v>
+        <v>72.05198357098038</v>
       </c>
       <c r="K13" t="n">
         <v>232.5212265022337</v>
       </c>
       <c r="L13" t="n">
-        <v>346.2309391281122</v>
+        <v>346.2309391281123</v>
       </c>
       <c r="M13" t="n">
         <v>374.1069463513979</v>
@@ -35586,7 +35586,7 @@
         <v>261.4306381030245</v>
       </c>
       <c r="Q13" t="n">
-        <v>104.8678054958077</v>
+        <v>104.8678054958078</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.44633086950974</v>
+        <v>95.1234531934652</v>
       </c>
       <c r="K15" t="n">
         <v>241.5253999472544</v>
       </c>
       <c r="L15" t="n">
-        <v>371.5511519259811</v>
+        <v>362.8740296020256</v>
       </c>
       <c r="M15" t="n">
         <v>453.1350614551607</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.36563529208568</v>
+        <v>72.36563529208573</v>
       </c>
       <c r="K16" t="n">
         <v>233.0366526300113</v>
       </c>
       <c r="L16" t="n">
-        <v>346.8905071166627</v>
+        <v>346.8905071166628</v>
       </c>
       <c r="M16" t="n">
         <v>374.8023683170685</v>
@@ -35823,7 +35823,7 @@
         <v>261.9671975086547</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.2392914162271</v>
+        <v>105.2392914162272</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>251.8623283702592</v>
       </c>
       <c r="R17" t="n">
-        <v>60.23445988066652</v>
+        <v>60.23445988066623</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>241.5253999472544</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8740296020256</v>
+        <v>371.5511519259811</v>
       </c>
       <c r="M18" t="n">
-        <v>453.1350614551607</v>
+        <v>444.4579391312053</v>
       </c>
       <c r="N18" t="n">
         <v>479.6823849700049</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6264140110952</v>
+        <v>191.6264140110947</v>
       </c>
       <c r="K20" t="n">
         <v>338.4493491105483</v>
@@ -36142,7 +36142,7 @@
         <v>251.8623283702592</v>
       </c>
       <c r="R20" t="n">
-        <v>60.23445988066669</v>
+        <v>60.23445988066652</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>191.6264140110952</v>
       </c>
       <c r="K23" t="n">
-        <v>338.4493491105483</v>
+        <v>662.5947616817131</v>
       </c>
       <c r="L23" t="n">
         <v>457.1508522374939</v>
@@ -36373,10 +36373,10 @@
         <v>509.7193777626326</v>
       </c>
       <c r="P23" t="n">
-        <v>721.9829085001747</v>
+        <v>412.7727097834092</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.7975422246579</v>
+        <v>251.8623283702592</v>
       </c>
       <c r="R23" t="n">
         <v>60.23445988066652</v>
@@ -36446,7 +36446,7 @@
         <v>453.1350614551607</v>
       </c>
       <c r="N24" t="n">
-        <v>479.6823849700049</v>
+        <v>471.0052626460499</v>
       </c>
       <c r="O24" t="n">
         <v>416.37143111252</v>
@@ -36455,7 +36455,7 @@
         <v>314.6464316809031</v>
       </c>
       <c r="Q24" t="n">
-        <v>151.2322538731707</v>
+        <v>159.9093761971259</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>191.6264140110951</v>
+        <v>360.723029183169</v>
       </c>
       <c r="K26" t="n">
-        <v>662.5947616817128</v>
+        <v>662.5947616817131</v>
       </c>
       <c r="L26" t="n">
-        <v>457.1508522374937</v>
+        <v>457.1508522374939</v>
       </c>
       <c r="M26" t="n">
-        <v>540.6577374049568</v>
+        <v>540.6577374049571</v>
       </c>
       <c r="N26" t="n">
-        <v>554.0665573403026</v>
+        <v>554.066557340303</v>
       </c>
       <c r="O26" t="n">
-        <v>512.9479855893727</v>
+        <v>519.0515078018567</v>
       </c>
       <c r="P26" t="n">
-        <v>721.9829085001745</v>
+        <v>400.1842003286922</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.862328370259</v>
+        <v>464.1773190301639</v>
       </c>
       <c r="R26" t="n">
-        <v>125.9508797536488</v>
+        <v>60.23445988066652</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>95.12345319346508</v>
+        <v>95.1234531934652</v>
       </c>
       <c r="K27" t="n">
-        <v>232.8482776233012</v>
+        <v>241.5253999472544</v>
       </c>
       <c r="L27" t="n">
-        <v>371.5511519259808</v>
+        <v>371.5511519259811</v>
       </c>
       <c r="M27" t="n">
-        <v>453.1350614551605</v>
+        <v>444.2723000423857</v>
       </c>
       <c r="N27" t="n">
-        <v>479.6823849700047</v>
+        <v>479.6823849700049</v>
       </c>
       <c r="O27" t="n">
-        <v>416.3714311125198</v>
+        <v>416.37143111252</v>
       </c>
       <c r="P27" t="n">
-        <v>314.6464316809029</v>
+        <v>314.6464316809031</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.9093761971258</v>
+        <v>159.9093761971259</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.1856390888203805</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.66654809042316</v>
+        <v>92.66654809042319</v>
       </c>
       <c r="K28" t="n">
-        <v>253.3375654283487</v>
+        <v>253.3375654283488</v>
       </c>
       <c r="L28" t="n">
         <v>367.1914199150002</v>
       </c>
       <c r="M28" t="n">
-        <v>395.1032811154059</v>
+        <v>395.103281115406</v>
       </c>
       <c r="N28" t="n">
-        <v>392.310312309463</v>
+        <v>392.3103123094631</v>
       </c>
       <c r="O28" t="n">
-        <v>349.7546714370045</v>
+        <v>349.7546714370046</v>
       </c>
       <c r="P28" t="n">
-        <v>282.2681103069921</v>
+        <v>282.2681103069922</v>
       </c>
       <c r="Q28" t="n">
         <v>125.5402042145646</v>
@@ -36838,7 +36838,7 @@
         <v>457.1508522374939</v>
       </c>
       <c r="M29" t="n">
-        <v>990.1712708977896</v>
+        <v>540.6577374049571</v>
       </c>
       <c r="N29" t="n">
         <v>554.066557340303</v>
@@ -36847,10 +36847,10 @@
         <v>509.7193777626326</v>
       </c>
       <c r="P29" t="n">
-        <v>400.1842003286922</v>
+        <v>721.9829085001747</v>
       </c>
       <c r="Q29" t="n">
-        <v>282.4249082747378</v>
+        <v>410.1397335960878</v>
       </c>
       <c r="R29" t="n">
         <v>125.950879753649</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.26069178069011</v>
+        <v>95.1234531934652</v>
       </c>
       <c r="K30" t="n">
         <v>241.5253999472544</v>
@@ -36929,7 +36929,7 @@
         <v>314.6464316809031</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.9093761971259</v>
+        <v>151.0466147843508</v>
       </c>
       <c r="R30" t="n">
         <v>0.1856390888203805</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.66654809042322</v>
+        <v>92.66654809042319</v>
       </c>
       <c r="K31" t="n">
         <v>253.3375654283488</v>
@@ -37008,7 +37008,7 @@
         <v>282.2681103069922</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.5402042145647</v>
+        <v>125.5402042145646</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,10 +37084,10 @@
         <v>509.7193777626326</v>
       </c>
       <c r="P32" t="n">
-        <v>667.9453230660999</v>
+        <v>721.9829085001747</v>
       </c>
       <c r="Q32" t="n">
-        <v>464.1773190301639</v>
+        <v>410.1397335960878</v>
       </c>
       <c r="R32" t="n">
         <v>125.950879753649</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.2606917806901</v>
+        <v>86.44633086951053</v>
       </c>
       <c r="K33" t="n">
         <v>241.5253999472544</v>
@@ -37169,7 +37169,7 @@
         <v>159.9093761971259</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1856390888203805</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.66654809042322</v>
+        <v>92.66654809042319</v>
       </c>
       <c r="K34" t="n">
         <v>253.3375654283488</v>
@@ -37245,7 +37245,7 @@
         <v>282.2681103069922</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.5402042145647</v>
+        <v>125.5402042145646</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>457.1508522374939</v>
       </c>
       <c r="M35" t="n">
-        <v>990.1712708977896</v>
+        <v>540.6577374049571</v>
       </c>
       <c r="N35" t="n">
         <v>554.066557340303</v>
@@ -37321,13 +37321,13 @@
         <v>509.7193777626326</v>
       </c>
       <c r="P35" t="n">
-        <v>400.1842003286922</v>
+        <v>721.9829085001747</v>
       </c>
       <c r="Q35" t="n">
-        <v>282.4249082747382</v>
+        <v>464.1773190301639</v>
       </c>
       <c r="R35" t="n">
-        <v>125.950879753649</v>
+        <v>71.91329431957273</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.26069178069011</v>
+        <v>95.1234531934652</v>
       </c>
       <c r="K36" t="n">
         <v>241.5253999472544</v>
       </c>
       <c r="L36" t="n">
-        <v>371.5511519259811</v>
+        <v>362.8740296020264</v>
       </c>
       <c r="M36" t="n">
         <v>453.1350614551607</v>
@@ -37406,7 +37406,7 @@
         <v>159.9093761971259</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1856390888203805</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>395.103281115406</v>
       </c>
       <c r="N37" t="n">
-        <v>392.3103123094631</v>
+        <v>392.3103123094637</v>
       </c>
       <c r="O37" t="n">
         <v>349.7546714370046</v>
@@ -37543,7 +37543,7 @@
         <v>360.723029183169</v>
       </c>
       <c r="K38" t="n">
-        <v>496.7267543363773</v>
+        <v>338.4493491105483</v>
       </c>
       <c r="L38" t="n">
         <v>457.1508522374939</v>
@@ -37561,7 +37561,7 @@
         <v>721.9829085001747</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.8623283702592</v>
+        <v>410.1397335960878</v>
       </c>
       <c r="R38" t="n">
         <v>125.950879753649</v>
@@ -37637,10 +37637,10 @@
         <v>416.37143111252</v>
       </c>
       <c r="P39" t="n">
-        <v>314.6464316809031</v>
+        <v>305.9693093569486</v>
       </c>
       <c r="Q39" t="n">
-        <v>151.2322538731712</v>
+        <v>159.9093761971259</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>367.1914199150002</v>
       </c>
       <c r="M40" t="n">
-        <v>395.1032811154066</v>
+        <v>395.103281115406</v>
       </c>
       <c r="N40" t="n">
         <v>392.3103123094631</v>
@@ -37780,7 +37780,7 @@
         <v>360.723029183169</v>
       </c>
       <c r="K41" t="n">
-        <v>606.2104718479548</v>
+        <v>338.4493491105483</v>
       </c>
       <c r="L41" t="n">
         <v>457.1508522374939</v>
@@ -37795,7 +37795,7 @@
         <v>509.7193777626326</v>
       </c>
       <c r="P41" t="n">
-        <v>400.1842003286922</v>
+        <v>667.9453230660995</v>
       </c>
       <c r="Q41" t="n">
         <v>464.1773190301639</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.66654809042316</v>
+        <v>92.66654809042321</v>
       </c>
       <c r="K43" t="n">
-        <v>253.3375654283499</v>
+        <v>253.3375654283488</v>
       </c>
       <c r="L43" t="n">
-        <v>367.1914199150002</v>
+        <v>367.1914199150003</v>
       </c>
       <c r="M43" t="n">
-        <v>395.1032811154059</v>
+        <v>395.103281115406</v>
       </c>
       <c r="N43" t="n">
         <v>392.3103123094631</v>
       </c>
       <c r="O43" t="n">
-        <v>349.7546714370045</v>
+        <v>349.7546714370046</v>
       </c>
       <c r="P43" t="n">
         <v>282.2681103069922</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>360.723029183169</v>
+        <v>306.6854437490932</v>
       </c>
       <c r="K44" t="n">
         <v>338.4493491105483</v>
@@ -38032,7 +38032,7 @@
         <v>509.7193777626326</v>
       </c>
       <c r="P44" t="n">
-        <v>667.945323066099</v>
+        <v>721.9829085001747</v>
       </c>
       <c r="Q44" t="n">
         <v>464.1773190301639</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.26069178069011</v>
+        <v>95.1234531934652</v>
       </c>
       <c r="K45" t="n">
         <v>241.5253999472544</v>
@@ -38114,10 +38114,10 @@
         <v>314.6464316809031</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.9093761971259</v>
+        <v>151.2322538731712</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1856390888203805</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.66654809042319</v>
+        <v>92.66654809042321</v>
       </c>
       <c r="K46" t="n">
         <v>253.3375654283488</v>
       </c>
       <c r="L46" t="n">
-        <v>367.1914199150002</v>
+        <v>367.1914199150003</v>
       </c>
       <c r="M46" t="n">
         <v>395.103281115406</v>
@@ -38193,7 +38193,7 @@
         <v>282.2681103069922</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.5402042145646</v>
+        <v>125.5402042145647</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
